--- a/CALCUL_TRS.xlsx
+++ b/CALCUL_TRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC3E45-0BB8-A948-AF8B-9C5D3FF6F600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C13A26B-55E7-6B4C-B834-7AB05BF18BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="40880" windowHeight="23540" activeTab="4" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="40880" windowHeight="23540" activeTab="5" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="TDB" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Arrêts" sheetId="2" r:id="rId3"/>
     <sheet name="TRS Machine" sheetId="3" r:id="rId4"/>
     <sheet name="Pareto" sheetId="12" r:id="rId5"/>
-    <sheet name="Traitement" sheetId="5" r:id="rId6"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId7"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId8"/>
-    <sheet name="Feuil8" sheetId="8" r:id="rId9"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId10"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId11"/>
-    <sheet name="Feuil11" sheetId="11" r:id="rId12"/>
+    <sheet name="Semaine" sheetId="13" r:id="rId6"/>
+    <sheet name="Traitement" sheetId="5" r:id="rId7"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId8"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId9"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId10"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId11"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId12"/>
+    <sheet name="Feuil11" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil11!$G$6:$G$27</definedName>
@@ -39,15 +40,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId13"/>
-    <pivotCache cacheId="12" r:id="rId14"/>
+    <pivotCache cacheId="8" r:id="rId14"/>
+    <pivotCache cacheId="12" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId15"/>
         <x14:slicerCache r:id="rId16"/>
         <x14:slicerCache r:id="rId17"/>
+        <x14:slicerCache r:id="rId18"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -55,7 +56,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId18"/>
+        <x15:timelineCacheRef r:id="rId19"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -744,6 +745,33 @@
   <si>
     <t>pds</t>
   </si>
+  <si>
+    <t>Semaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine </t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Qté produite</t>
+  </si>
+  <si>
+    <t>Écart</t>
+  </si>
+  <si>
+    <t>Semaine 10</t>
+  </si>
+  <si>
+    <t>Semaine 11</t>
+  </si>
+  <si>
+    <t>Semaine 12</t>
+  </si>
+  <si>
+    <t>Commmentaire</t>
+  </si>
 </sst>
 </file>
 
@@ -1278,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1480,12 +1508,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -38122,7 +38216,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -38251,14 +38345,14 @@
     <dataField name="Somme de Durées (m)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="25">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -38797,7 +38891,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="26">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -39372,7 +39466,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -39963,7 +40057,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="18">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -40115,7 +40209,7 @@
     <dataField name="Somme de Durées (h)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -40732,7 +40826,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -41593,7 +41687,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="21">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -42171,7 +42265,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="22">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -42749,7 +42843,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="23">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -42885,44 +42979,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}" name="Tableau1" displayName="Tableau1" ref="B12:N312" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}" name="Tableau1" displayName="Tableau1" ref="B12:N312" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="B12:N312" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1D039082-F45C-42A3-A96D-5829EEFF21C4}" name="Date" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{BBFA4997-538A-476D-BD76-263203FF6ABC}" name="Équipe" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{9A20E0DF-9527-4B0D-A550-5EF7167ABF81}" name="Machine" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{3B0ED0DB-3A3D-42B9-92CE-C7769A603883}" name="Reference" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{60FF7E2E-7F53-4AC9-8137-2A5C65D24895}" name="Cadence" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{06210FA9-A842-4E73-9D61-5F5A7ACE1E35}" name="Quantité" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{01816378-CFEC-4708-A4F0-66CF1B5F1387}" name="Objectif" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{1D039082-F45C-42A3-A96D-5829EEFF21C4}" name="Date" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{BBFA4997-538A-476D-BD76-263203FF6ABC}" name="Équipe" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{9A20E0DF-9527-4B0D-A550-5EF7167ABF81}" name="Machine" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{3B0ED0DB-3A3D-42B9-92CE-C7769A603883}" name="Reference" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{60FF7E2E-7F53-4AC9-8137-2A5C65D24895}" name="Cadence" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{06210FA9-A842-4E73-9D61-5F5A7ACE1E35}" name="Quantité" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{01816378-CFEC-4708-A4F0-66CF1B5F1387}" name="Objectif" dataDxfId="54">
       <calculatedColumnFormula>F13*8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C4032EF7-3002-493D-8583-34A8B76258DE}" name="Écart pièces" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{C4032EF7-3002-493D-8583-34A8B76258DE}" name="Écart pièces" dataDxfId="53">
       <calculatedColumnFormula>H13-G13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9DAE7675-70FD-445E-BDDB-E8E2238565B6}" name="Écart temps" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{1438624C-19DD-48A8-B0D4-4C0454660192}" name="Nombre d'arrêt" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{92F0ED0E-5E30-47AC-B9F1-963B5B62C863}" name="Durée arrêts" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{21AA2E60-0434-4A20-BDBE-F1BA2A9CF39A}" name="TRS" dataDxfId="46" dataCellStyle="Pourcentage"/>
-    <tableColumn id="13" xr3:uid="{19486378-4A9F-497E-9B1F-E475ECBA87F9}" name="Commentaire" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{9DAE7675-70FD-445E-BDDB-E8E2238565B6}" name="Écart temps" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{1438624C-19DD-48A8-B0D4-4C0454660192}" name="Nombre d'arrêt" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{92F0ED0E-5E30-47AC-B9F1-963B5B62C863}" name="Durée arrêts" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{21AA2E60-0434-4A20-BDBE-F1BA2A9CF39A}" name="TRS" dataDxfId="49" dataCellStyle="Pourcentage"/>
+    <tableColumn id="13" xr3:uid="{19486378-4A9F-497E-9B1F-E475ECBA87F9}" name="Commentaire" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}" name="Tableau2" displayName="Tableau2" ref="B5:H76" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}" name="Tableau2" displayName="Tableau2" ref="B5:H76" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B5:H76" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C8979906-7385-4F96-B2E7-4F8FC864FCF7}" name="Date" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{C364A27F-09CB-402B-A1F2-43C609B28A7C}" name="Équipe" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{1361715B-CE84-4C43-92F7-019565185AAA}" name="Machine" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{E770DDB2-0CDE-42F9-A515-5F913C3C5CFA}" name="Arrêts" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{95B5CA0A-A6B0-47A6-A582-77BA65A8C587}" name="Durées (m)" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{43C12E68-90D4-42CF-BC19-E6722FF7D947}" name="Durées (h)" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{C8979906-7385-4F96-B2E7-4F8FC864FCF7}" name="Date" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C364A27F-09CB-402B-A1F2-43C609B28A7C}" name="Équipe" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{1361715B-CE84-4C43-92F7-019565185AAA}" name="Machine" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{E770DDB2-0CDE-42F9-A515-5F913C3C5CFA}" name="Arrêts" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{95B5CA0A-A6B0-47A6-A582-77BA65A8C587}" name="Durées (m)" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{43C12E68-90D4-42CF-BC19-E6722FF7D947}" name="Durées (h)" dataDxfId="40">
       <calculatedColumnFormula>Tableau2[[#This Row],[Durées (m)]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FDF7BB73-1D0C-A241-A789-075E09936532}" name="pds" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{FDF7BB73-1D0C-A241-A789-075E09936532}" name="pds" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -42932,13 +43026,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{894CCDAD-CDD6-465E-80D2-20AB554BBE4E}" name="Tableau3" displayName="Tableau3" ref="B5:H105" totalsRowShown="0">
   <autoFilter ref="B5:H105" xr:uid="{894CCDAD-CDD6-465E-80D2-20AB554BBE4E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7C267BB5-CF9B-4D47-8B80-1FB9E42CA5FD}" name="Date" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{7C267BB5-CF9B-4D47-8B80-1FB9E42CA5FD}" name="Date" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{8A871C23-BE6F-4F7B-B503-1F0217DD11F8}" name="Machine"/>
-    <tableColumn id="3" xr3:uid="{E32C80A4-959D-4B04-8450-5951FACD7F0D}" name="TRS 1" dataDxfId="34" dataCellStyle="Pourcentage"/>
-    <tableColumn id="4" xr3:uid="{04FDCF70-8941-43FF-9DFD-7BB25B382D43}" name="TRS 2 " dataDxfId="33" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{E32C80A4-959D-4B04-8450-5951FACD7F0D}" name="TRS 1" dataDxfId="37" dataCellStyle="Pourcentage"/>
+    <tableColumn id="4" xr3:uid="{04FDCF70-8941-43FF-9DFD-7BB25B382D43}" name="TRS 2 " dataDxfId="36" dataCellStyle="Pourcentage"/>
     <tableColumn id="5" xr3:uid="{83200B39-5C25-4757-8A04-3BEC7005985C}" name="Quantité E1+E2"/>
     <tableColumn id="6" xr3:uid="{883E0652-4F53-47D8-9F13-A468EEFB9D7B}" name="Quantité E3"/>
-    <tableColumn id="7" xr3:uid="{F9AFD7FF-EAC3-44D0-A1CE-D67455A2B1FF}" name="Quantité total" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{F9AFD7FF-EAC3-44D0-A1CE-D67455A2B1FF}" name="Quantité total" dataDxfId="35">
       <calculatedColumnFormula>F6+G6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -42947,27 +43041,46 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}" name="Tableau5" displayName="Tableau5" ref="B5:D15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}" name="Tableau5" displayName="Tableau5" ref="B5:D15" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B5:D15" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D15">
     <sortCondition descending="1" ref="C6:C15"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{89A7542E-1751-CB40-B649-E24A7F3492D9}" name="Arrêts" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{493BB54B-9250-2D4B-B6C7-D5E559092A71}" name="Durées (m)" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0482A10B-5D20-934F-9D71-A1713F93DF2F}" name="PC" dataDxfId="27" dataCellStyle="Pourcentage"/>
+    <tableColumn id="1" xr3:uid="{89A7542E-1751-CB40-B649-E24A7F3492D9}" name="Arrêts" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{493BB54B-9250-2D4B-B6C7-D5E559092A71}" name="Durées (m)" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{0482A10B-5D20-934F-9D71-A1713F93DF2F}" name="PC" dataDxfId="30" dataCellStyle="Pourcentage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}" name="Tableau4" displayName="Tableau4" ref="AI32:AK62" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}" name="Tableau6" displayName="Tableau6" ref="B5:I14" totalsRowShown="0">
+  <autoFilter ref="B5:I14" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5FF3DE14-D01D-CC49-850B-BCDA13E32092}" name="Semaine"/>
+    <tableColumn id="2" xr3:uid="{D00B9277-446B-FC4B-A4F8-BAD0E1F999D5}" name="Machine " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B2D906ED-F0F7-9448-9AF1-A69813965A44}" name="Ref" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4D0E4E49-F3E9-404C-B205-D9C55910B9E1}" name="Objectif"/>
+    <tableColumn id="5" xr3:uid="{1FB481F5-4815-6245-A5D3-BCA9454FBAEF}" name="Qté produite"/>
+    <tableColumn id="6" xr3:uid="{6DAFD0A6-7665-B146-A89D-00902FC921DC}" name="Écart">
+      <calculatedColumnFormula>E6-F6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{EB814DC3-DAC7-6B45-999C-1AC4C9E7E41E}" name="TRS" dataDxfId="0" dataCellStyle="Pourcentage"/>
+    <tableColumn id="8" xr3:uid="{8F9ADACA-4E38-DD4D-8A59-7195BFF9DABC}" name="Commmentaire"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}" name="Tableau4" displayName="Tableau4" ref="AI32:AK62" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="AI32:AK62" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF8A1C01-18E8-494B-83B0-7679C44537BE}" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{430A7B71-3CE2-4D74-8DAF-18AED78B5B2D}" name="TRS" dataDxfId="12" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{F1EF3F5F-838A-436F-8A45-EE6CDF2D8D01}" name="Qté" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{DF8A1C01-18E8-494B-83B0-7679C44537BE}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{430A7B71-3CE2-4D74-8DAF-18AED78B5B2D}" name="TRS" dataDxfId="15" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{F1EF3F5F-838A-436F-8A45-EE6CDF2D8D01}" name="Qté" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -43349,6 +43462,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4D713-E1D4-4792-8A52-E0B153426225}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B34:H36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="72">
+        <v>60</v>
+      </c>
+      <c r="H34" s="73">
+        <f>G34/60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="72">
+        <v>60</v>
+      </c>
+      <c r="H35" s="73">
+        <f t="shared" ref="H35:H36" si="0">G35/60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="74">
+        <v>45726</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="77">
+        <v>60</v>
+      </c>
+      <c r="H36" s="73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4FCCD-D94F-4CE6-B0D0-6FEF2B76089E}">
   <dimension ref="A4:AK86"/>
   <sheetViews>
@@ -44728,7 +44930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C7256B-A39F-4936-AB81-89CAAB19787C}">
   <dimension ref="B5:I17"/>
   <sheetViews>
@@ -44947,7 +45149,7 @@
         <v>105</v>
       </c>
       <c r="C13" s="6">
-        <f>SUM(C6:C12)</f>
+        <f>SOMME(C6:C12)</f>
         <v>1536</v>
       </c>
     </row>
@@ -44985,7 +45187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BBB01C-5372-4A16-B78D-B844DEF5F5F8}">
   <dimension ref="B5:I28"/>
   <sheetViews>
@@ -45574,7 +45776,7 @@
         <v>105</v>
       </c>
       <c r="C28">
-        <f>SUM(C6:C27)</f>
+        <f>SOMME(C6:C27)</f>
         <v>1570</v>
       </c>
     </row>
@@ -45593,8 +45795,8 @@
   <dimension ref="B3:S312"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N296" sqref="N296"/>
+      <pane ySplit="12" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45634,7 +45836,7 @@
       </c>
       <c r="F4" s="19">
         <f>C7</f>
-        <v>808</v>
+        <v>720</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>30</v>
@@ -45676,7 +45878,7 @@
       </c>
       <c r="F5" s="19">
         <f>F4/3600</f>
-        <v>0.22444444444444445</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>31</v>
@@ -45706,11 +45908,11 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="20">
         <f>L10-L4</f>
-        <v>1440</v>
+        <v>3840</v>
       </c>
       <c r="R5" s="26">
         <f>Q5*60</f>
-        <v>86400</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
@@ -45736,11 +45938,11 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="20">
         <f>L10-L5</f>
-        <v>1440</v>
+        <v>3840</v>
       </c>
       <c r="R6" s="27">
         <f>Q6*60</f>
-        <v>86400</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
@@ -45748,11 +45950,11 @@
         <v>25</v>
       </c>
       <c r="C7" s="15">
-        <v>808</v>
+        <v>720</v>
       </c>
       <c r="D7" s="16">
         <f>C7*K10</f>
-        <v>19392</v>
+        <v>46080</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>44</v>
@@ -45787,11 +45989,11 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="20">
         <f>Q6-L6</f>
-        <v>1440</v>
+        <v>3840</v>
       </c>
       <c r="R7" s="28">
         <f>Q7*60</f>
-        <v>86400</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
@@ -45799,11 +46001,11 @@
         <v>26</v>
       </c>
       <c r="C8" s="17">
-        <v>808</v>
+        <v>720</v>
       </c>
       <c r="D8" s="16">
         <f>C8*K10</f>
-        <v>19392</v>
+        <v>46080</v>
       </c>
       <c r="E8" s="85">
         <f>I10</f>
@@ -45824,11 +46026,11 @@
       <c r="P8" s="20"/>
       <c r="Q8" s="20">
         <f>Q7-L7</f>
-        <v>1440</v>
+        <v>3840</v>
       </c>
       <c r="R8" s="29">
         <f>Q8*60</f>
-        <v>86400</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
@@ -45885,15 +46087,15 @@
         <v>49</v>
       </c>
       <c r="K10" s="17">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="L10" s="19">
         <f>K10*60</f>
-        <v>1440</v>
+        <v>3840</v>
       </c>
       <c r="M10" s="54">
         <f>L10*60</f>
-        <v>86400</v>
+        <v>230400</v>
       </c>
       <c r="N10" s="91"/>
       <c r="O10" s="56" t="s">
@@ -60408,7 +60610,7 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -62856,7 +63058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD22D23-C4F9-0349-90F7-1D33D01212EE}">
   <dimension ref="B5:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -62880,7 +63082,7 @@
         <v>105</v>
       </c>
       <c r="H5">
-        <f>SUM(C6:C15)</f>
+        <f>SOMME(C6:C15)</f>
         <v>5859</v>
       </c>
     </row>
@@ -63019,6 +63221,271 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A40D3-9BA8-C84A-9206-0B23B732268D}">
+  <dimension ref="B5:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="93">
+        <v>46400</v>
+      </c>
+      <c r="F6" s="93">
+        <v>29693</v>
+      </c>
+      <c r="G6" s="93">
+        <f>E6-F6</f>
+        <v>16707</v>
+      </c>
+      <c r="H6" s="98">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="93">
+        <v>70400</v>
+      </c>
+      <c r="F7" s="93">
+        <v>44608</v>
+      </c>
+      <c r="G7" s="93">
+        <f t="shared" ref="G7:G14" si="0">E7-F7</f>
+        <v>25792</v>
+      </c>
+      <c r="H7" s="97">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="93">
+        <v>46080</v>
+      </c>
+      <c r="F8" s="93">
+        <v>0</v>
+      </c>
+      <c r="G8" s="93">
+        <f t="shared" si="0"/>
+        <v>46080</v>
+      </c>
+      <c r="H8" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="93">
+        <v>70400</v>
+      </c>
+      <c r="F9" s="93">
+        <v>46539</v>
+      </c>
+      <c r="G9" s="93">
+        <f t="shared" si="0"/>
+        <v>23861</v>
+      </c>
+      <c r="H9" s="97">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="93">
+        <v>36360</v>
+      </c>
+      <c r="F10" s="93">
+        <v>35638</v>
+      </c>
+      <c r="G10" s="93">
+        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+      <c r="H10" s="97">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="93">
+        <v>70400</v>
+      </c>
+      <c r="F11" s="93">
+        <v>51133</v>
+      </c>
+      <c r="G11" s="93">
+        <f t="shared" si="0"/>
+        <v>19267</v>
+      </c>
+      <c r="H11" s="97">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="93">
+        <v>46080</v>
+      </c>
+      <c r="F12" s="93">
+        <v>0</v>
+      </c>
+      <c r="G12" s="93">
+        <f t="shared" si="0"/>
+        <v>46080</v>
+      </c>
+      <c r="H12" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="93">
+        <v>70400</v>
+      </c>
+      <c r="F13" s="93">
+        <v>56086</v>
+      </c>
+      <c r="G13" s="93">
+        <f t="shared" si="0"/>
+        <v>14314</v>
+      </c>
+      <c r="H13" s="97">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="93">
+        <v>70400</v>
+      </c>
+      <c r="F14" s="93">
+        <v>56086</v>
+      </c>
+      <c r="G14" s="93">
+        <f t="shared" ref="G14" si="1">E14-F14</f>
+        <v>14314</v>
+      </c>
+      <c r="H14" s="97">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660EC4F3-5481-4A5E-94A2-6A5B41FC264F}">
   <dimension ref="B1:BS29"/>
   <sheetViews>
@@ -63272,7 +63739,7 @@
         <v>64</v>
       </c>
       <c r="G4">
-        <f>GETPIVOTDATA("Nombre de Arrêts",$B$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Nombre de Arrêts";$B$3)</f>
         <v>71</v>
       </c>
       <c r="I4" s="61" t="s">
@@ -63285,7 +63752,7 @@
         <v>65</v>
       </c>
       <c r="L4">
-        <f>GETPIVOTDATA("Durées (m)",$I$3)/60</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Durées (m)";$I$3)/60</f>
         <v>97.65</v>
       </c>
       <c r="N4" s="61" t="s">
@@ -63319,7 +63786,7 @@
         <v>71</v>
       </c>
       <c r="Z4" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 1",$S$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 1";$S$3)</f>
         <v>10.860000000000001</v>
       </c>
       <c r="AB4" s="64">
@@ -63344,7 +63811,7 @@
         <v>71</v>
       </c>
       <c r="AI4" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 1",$AB$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 1";$AB$3)</f>
         <v>13.280000000000001</v>
       </c>
       <c r="AK4" s="64">
@@ -63369,7 +63836,7 @@
         <v>71</v>
       </c>
       <c r="AR4" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 1",$AK$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 1";$AK$3)</f>
         <v>3.4950000000000001</v>
       </c>
       <c r="AS4" s="64">
@@ -63394,7 +63861,7 @@
         <v>71</v>
       </c>
       <c r="AZ4" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 1",$AS$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 1";$AS$3)</f>
         <v>14.713000000000003</v>
       </c>
       <c r="BB4" s="64">
@@ -63482,7 +63949,7 @@
         <v>72</v>
       </c>
       <c r="Z5" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 2 ",$S$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 2 ";$S$3)</f>
         <v>10.163300000000001</v>
       </c>
       <c r="AB5" s="64">
@@ -63507,7 +63974,7 @@
         <v>72</v>
       </c>
       <c r="AI5" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 2 ",$AB$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 2 ";$AB$3)</f>
         <v>12.189299999999999</v>
       </c>
       <c r="AK5" s="64">
@@ -63532,7 +63999,7 @@
         <v>72</v>
       </c>
       <c r="AR5" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 2 ",$AK$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 2 ";$AK$3)</f>
         <v>3.0059999999999998</v>
       </c>
       <c r="AS5" s="64">
@@ -63557,7 +64024,7 @@
         <v>72</v>
       </c>
       <c r="AZ5" s="1">
-        <f>GETPIVOTDATA("Somme de TRS 2 ",$AS$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de TRS 2 ";$AS$3)</f>
         <v>12.452300000000003</v>
       </c>
       <c r="BB5" s="64">
@@ -63641,7 +64108,7 @@
         <v>73</v>
       </c>
       <c r="Z6">
-        <f>+GETPIVOTDATA("Somme de Quantité E1+E2",$S$3)</f>
+        <f>+LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E1+E2";$S$3)</f>
         <v>134737</v>
       </c>
       <c r="AB6" s="64">
@@ -63666,7 +64133,7 @@
         <v>73</v>
       </c>
       <c r="AI6">
-        <f>GETPIVOTDATA("Somme de Quantité E1+E2",$AB$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E1+E2";$AB$3)</f>
         <v>232631</v>
       </c>
       <c r="AK6" s="64">
@@ -63691,7 +64158,7 @@
         <v>73</v>
       </c>
       <c r="AR6">
-        <f>GETPIVOTDATA("Somme de Quantité E1+E2",$AK$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E1+E2";$AK$3)</f>
         <v>43938</v>
       </c>
       <c r="AS6" s="64">
@@ -63716,7 +64183,7 @@
         <v>73</v>
       </c>
       <c r="AZ6">
-        <f>GETPIVOTDATA("Somme de Quantité E1+E2",$AS$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E1+E2";$AS$3)</f>
         <v>256871</v>
       </c>
       <c r="BB6" s="64">
@@ -63800,7 +64267,7 @@
         <v>74</v>
       </c>
       <c r="Z7">
-        <f>GETPIVOTDATA("Somme de Quantité E3",$S$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E3";$S$3)</f>
         <v>44386</v>
       </c>
       <c r="AB7" s="64">
@@ -63825,7 +64292,7 @@
         <v>74</v>
       </c>
       <c r="AI7">
-        <f>GETPIVOTDATA("Somme de Quantité E3",$AB$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E3";$AB$3)</f>
         <v>97522</v>
       </c>
       <c r="AK7" s="64">
@@ -63850,7 +64317,7 @@
         <v>74</v>
       </c>
       <c r="AR7">
-        <f>GETPIVOTDATA("Somme de Quantité E3",$AK$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E3";$AK$3)</f>
         <v>9360</v>
       </c>
       <c r="AS7" s="64">
@@ -63875,7 +64342,7 @@
         <v>74</v>
       </c>
       <c r="AZ7">
-        <f>GETPIVOTDATA("Somme de Quantité E3",$AS$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité E3";$AS$3)</f>
         <v>86091</v>
       </c>
       <c r="BB7" s="64">
@@ -63959,7 +64426,7 @@
         <v>75</v>
       </c>
       <c r="Z8">
-        <f>GETPIVOTDATA("Somme de Quantité total",$S$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité total";$S$3)</f>
         <v>179123</v>
       </c>
       <c r="AB8" s="64">
@@ -63984,7 +64451,7 @@
         <v>75</v>
       </c>
       <c r="AI8">
-        <f>GETPIVOTDATA("Somme de Quantité total",$AB$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité total";$AB$3)</f>
         <v>330153</v>
       </c>
       <c r="AK8" s="64">
@@ -64009,7 +64476,7 @@
         <v>75</v>
       </c>
       <c r="AR8">
-        <f>GETPIVOTDATA("Somme de Quantité total",$AK$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité total";$AK$3)</f>
         <v>53298</v>
       </c>
       <c r="AS8" s="64">
@@ -64034,7 +64501,7 @@
         <v>75</v>
       </c>
       <c r="AZ8">
-        <f>GETPIVOTDATA("Somme de Quantité total",$AS$3)</f>
+        <f>LIREDONNEESTABCROISDYNAMIQUE("Somme de Quantité total";$AS$3)</f>
         <v>342962</v>
       </c>
       <c r="BB8" s="64">
@@ -65898,7 +66365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AEDC09-A57F-467F-9DBA-FDC12EC183C5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -65966,7 +66433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81291E12-FAD3-42EE-8315-E489CB628569}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -66054,93 +66521,4 @@
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4D713-E1D4-4792-8A52-E0B153426225}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B34:H36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="72">
-        <v>60</v>
-      </c>
-      <c r="H34" s="73">
-        <f>G34/60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="72">
-        <v>60</v>
-      </c>
-      <c r="H35" s="73">
-        <f t="shared" ref="H35:H36" si="0">G35/60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="74">
-        <v>45726</v>
-      </c>
-      <c r="D36" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="77">
-        <v>60</v>
-      </c>
-      <c r="H36" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/CALCUL_TRS.xlsx
+++ b/CALCUL_TRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C13A26B-55E7-6B4C-B834-7AB05BF18BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FD5D5-9DF7-3241-9A2B-05C93BD81743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="40880" windowHeight="23540" activeTab="5" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="40880" windowHeight="23540" activeTab="6" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="TDB" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="TRS Machine" sheetId="3" r:id="rId4"/>
     <sheet name="Pareto" sheetId="12" r:id="rId5"/>
     <sheet name="Semaine" sheetId="13" r:id="rId6"/>
-    <sheet name="Traitement" sheetId="5" r:id="rId7"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId8"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId9"/>
-    <sheet name="Feuil8" sheetId="8" r:id="rId10"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId11"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId12"/>
-    <sheet name="Feuil11" sheetId="11" r:id="rId13"/>
+    <sheet name="DétailTRS" sheetId="14" r:id="rId7"/>
+    <sheet name="Traitement" sheetId="5" r:id="rId8"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId9"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId10"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId11"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId12"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId13"/>
+    <sheet name="Feuil11" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil11!$G$6:$G$27</definedName>
@@ -40,15 +41,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId14"/>
-    <pivotCache cacheId="12" r:id="rId15"/>
+    <pivotCache cacheId="8" r:id="rId15"/>
+    <pivotCache cacheId="12" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId16"/>
         <x14:slicerCache r:id="rId17"/>
         <x14:slicerCache r:id="rId18"/>
+        <x14:slicerCache r:id="rId19"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -56,7 +57,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId19"/>
+        <x15:timelineCacheRef r:id="rId20"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -772,6 +773,75 @@
   <si>
     <t>Commmentaire</t>
   </si>
+  <si>
+    <t>Shinko 1 V831</t>
+  </si>
+  <si>
+    <t>Shinko 2 V832</t>
+  </si>
+  <si>
+    <t>Shinko 3 V833</t>
+  </si>
+  <si>
+    <t>Objectif1</t>
+  </si>
+  <si>
+    <t>Objectif2</t>
+  </si>
+  <si>
+    <t>Objectif3</t>
+  </si>
+  <si>
+    <t>Objectif4</t>
+  </si>
+  <si>
+    <t>Réf1</t>
+  </si>
+  <si>
+    <t>Qté produite1</t>
+  </si>
+  <si>
+    <t>Écart1</t>
+  </si>
+  <si>
+    <t>TRS1</t>
+  </si>
+  <si>
+    <t>Réf2</t>
+  </si>
+  <si>
+    <t>Qté produite2</t>
+  </si>
+  <si>
+    <t>Écart2</t>
+  </si>
+  <si>
+    <t>TRS2</t>
+  </si>
+  <si>
+    <t>Réf3</t>
+  </si>
+  <si>
+    <t>Écart3</t>
+  </si>
+  <si>
+    <t>TRS3</t>
+  </si>
+  <si>
+    <t>Réf4</t>
+  </si>
+  <si>
+    <t>Qté produite4</t>
+  </si>
+  <si>
+    <t>Écart4</t>
+  </si>
+  <si>
+    <t>TRS4</t>
+  </si>
+  <si>
+    <t>Qté produite3</t>
+  </si>
 </sst>
 </file>
 
@@ -1032,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1301,12 +1371,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1507,6 +1588,7 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1518,12 +1600,720 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1579,39 +2369,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -38216,7 +38973,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -38345,14 +39102,14 @@
     <dataField name="Somme de Durées (m)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="28">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -38891,7 +39648,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="29">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -39466,7 +40223,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -40057,7 +40814,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="21">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -40209,7 +40966,7 @@
     <dataField name="Somme de Durées (h)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="22">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -40826,7 +41583,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="23">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -41687,7 +42444,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -42265,7 +43022,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="25">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -42843,7 +43600,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="26">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -42979,44 +43736,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}" name="Tableau1" displayName="Tableau1" ref="B12:N312" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}" name="Tableau1" displayName="Tableau1" ref="B12:N312" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="B12:N312" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1D039082-F45C-42A3-A96D-5829EEFF21C4}" name="Date" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{BBFA4997-538A-476D-BD76-263203FF6ABC}" name="Équipe" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{9A20E0DF-9527-4B0D-A550-5EF7167ABF81}" name="Machine" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{3B0ED0DB-3A3D-42B9-92CE-C7769A603883}" name="Reference" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{60FF7E2E-7F53-4AC9-8137-2A5C65D24895}" name="Cadence" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{06210FA9-A842-4E73-9D61-5F5A7ACE1E35}" name="Quantité" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{01816378-CFEC-4708-A4F0-66CF1B5F1387}" name="Objectif" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{1D039082-F45C-42A3-A96D-5829EEFF21C4}" name="Date" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{BBFA4997-538A-476D-BD76-263203FF6ABC}" name="Équipe" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{9A20E0DF-9527-4B0D-A550-5EF7167ABF81}" name="Machine" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{3B0ED0DB-3A3D-42B9-92CE-C7769A603883}" name="Reference" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{60FF7E2E-7F53-4AC9-8137-2A5C65D24895}" name="Cadence" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{06210FA9-A842-4E73-9D61-5F5A7ACE1E35}" name="Quantité" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{01816378-CFEC-4708-A4F0-66CF1B5F1387}" name="Objectif" dataDxfId="73">
       <calculatedColumnFormula>F13*8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C4032EF7-3002-493D-8583-34A8B76258DE}" name="Écart pièces" dataDxfId="53">
+    <tableColumn id="8" xr3:uid="{C4032EF7-3002-493D-8583-34A8B76258DE}" name="Écart pièces" dataDxfId="72">
       <calculatedColumnFormula>H13-G13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9DAE7675-70FD-445E-BDDB-E8E2238565B6}" name="Écart temps" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{1438624C-19DD-48A8-B0D4-4C0454660192}" name="Nombre d'arrêt" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{92F0ED0E-5E30-47AC-B9F1-963B5B62C863}" name="Durée arrêts" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{21AA2E60-0434-4A20-BDBE-F1BA2A9CF39A}" name="TRS" dataDxfId="49" dataCellStyle="Pourcentage"/>
-    <tableColumn id="13" xr3:uid="{19486378-4A9F-497E-9B1F-E475ECBA87F9}" name="Commentaire" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{9DAE7675-70FD-445E-BDDB-E8E2238565B6}" name="Écart temps" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{1438624C-19DD-48A8-B0D4-4C0454660192}" name="Nombre d'arrêt" dataDxfId="70"/>
+    <tableColumn id="11" xr3:uid="{92F0ED0E-5E30-47AC-B9F1-963B5B62C863}" name="Durée arrêts" dataDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{21AA2E60-0434-4A20-BDBE-F1BA2A9CF39A}" name="TRS" dataDxfId="68" dataCellStyle="Pourcentage"/>
+    <tableColumn id="13" xr3:uid="{19486378-4A9F-497E-9B1F-E475ECBA87F9}" name="Commentaire" dataDxfId="67"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}" name="Tableau4" displayName="Tableau4" ref="AI32:AK62" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="AI32:AK62" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DF8A1C01-18E8-494B-83B0-7679C44537BE}" name="Date" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{430A7B71-3CE2-4D74-8DAF-18AED78B5B2D}" name="TRS" dataDxfId="34" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{F1EF3F5F-838A-436F-8A45-EE6CDF2D8D01}" name="Qté" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}" name="Tableau2" displayName="Tableau2" ref="B5:H76" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}" name="Tableau2" displayName="Tableau2" ref="B5:H76" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="B5:H76" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C8979906-7385-4F96-B2E7-4F8FC864FCF7}" name="Date" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{C364A27F-09CB-402B-A1F2-43C609B28A7C}" name="Équipe" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{1361715B-CE84-4C43-92F7-019565185AAA}" name="Machine" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{E770DDB2-0CDE-42F9-A515-5F913C3C5CFA}" name="Arrêts" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{95B5CA0A-A6B0-47A6-A582-77BA65A8C587}" name="Durées (m)" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{43C12E68-90D4-42CF-BC19-E6722FF7D947}" name="Durées (h)" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{C8979906-7385-4F96-B2E7-4F8FC864FCF7}" name="Date" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{C364A27F-09CB-402B-A1F2-43C609B28A7C}" name="Équipe" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{1361715B-CE84-4C43-92F7-019565185AAA}" name="Machine" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{E770DDB2-0CDE-42F9-A515-5F913C3C5CFA}" name="Arrêts" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{95B5CA0A-A6B0-47A6-A582-77BA65A8C587}" name="Durées (m)" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{43C12E68-90D4-42CF-BC19-E6722FF7D947}" name="Durées (h)" dataDxfId="59">
       <calculatedColumnFormula>Tableau2[[#This Row],[Durées (m)]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FDF7BB73-1D0C-A241-A789-075E09936532}" name="pds" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{FDF7BB73-1D0C-A241-A789-075E09936532}" name="pds" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -43026,13 +43795,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{894CCDAD-CDD6-465E-80D2-20AB554BBE4E}" name="Tableau3" displayName="Tableau3" ref="B5:H105" totalsRowShown="0">
   <autoFilter ref="B5:H105" xr:uid="{894CCDAD-CDD6-465E-80D2-20AB554BBE4E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7C267BB5-CF9B-4D47-8B80-1FB9E42CA5FD}" name="Date" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{7C267BB5-CF9B-4D47-8B80-1FB9E42CA5FD}" name="Date" dataDxfId="57"/>
     <tableColumn id="2" xr3:uid="{8A871C23-BE6F-4F7B-B503-1F0217DD11F8}" name="Machine"/>
-    <tableColumn id="3" xr3:uid="{E32C80A4-959D-4B04-8450-5951FACD7F0D}" name="TRS 1" dataDxfId="37" dataCellStyle="Pourcentage"/>
-    <tableColumn id="4" xr3:uid="{04FDCF70-8941-43FF-9DFD-7BB25B382D43}" name="TRS 2 " dataDxfId="36" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{E32C80A4-959D-4B04-8450-5951FACD7F0D}" name="TRS 1" dataDxfId="56" dataCellStyle="Pourcentage"/>
+    <tableColumn id="4" xr3:uid="{04FDCF70-8941-43FF-9DFD-7BB25B382D43}" name="TRS 2 " dataDxfId="55" dataCellStyle="Pourcentage"/>
     <tableColumn id="5" xr3:uid="{83200B39-5C25-4757-8A04-3BEC7005985C}" name="Quantité E1+E2"/>
     <tableColumn id="6" xr3:uid="{883E0652-4F53-47D8-9F13-A468EEFB9D7B}" name="Quantité E3"/>
-    <tableColumn id="7" xr3:uid="{F9AFD7FF-EAC3-44D0-A1CE-D67455A2B1FF}" name="Quantité total" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{F9AFD7FF-EAC3-44D0-A1CE-D67455A2B1FF}" name="Quantité total" dataDxfId="54">
       <calculatedColumnFormula>F6+G6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -43041,15 +43810,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}" name="Tableau5" displayName="Tableau5" ref="B5:D15" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}" name="Tableau5" displayName="Tableau5" ref="B5:D15" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B5:D15" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D15">
     <sortCondition descending="1" ref="C6:C15"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{89A7542E-1751-CB40-B649-E24A7F3492D9}" name="Arrêts" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{493BB54B-9250-2D4B-B6C7-D5E559092A71}" name="Durées (m)" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{0482A10B-5D20-934F-9D71-A1713F93DF2F}" name="PC" dataDxfId="30" dataCellStyle="Pourcentage"/>
+    <tableColumn id="1" xr3:uid="{89A7542E-1751-CB40-B649-E24A7F3492D9}" name="Arrêts" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{493BB54B-9250-2D4B-B6C7-D5E559092A71}" name="Durées (m)" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{0482A10B-5D20-934F-9D71-A1713F93DF2F}" name="PC" dataDxfId="49" dataCellStyle="Pourcentage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -43060,14 +43829,14 @@
   <autoFilter ref="B5:I14" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5FF3DE14-D01D-CC49-850B-BCDA13E32092}" name="Semaine"/>
-    <tableColumn id="2" xr3:uid="{D00B9277-446B-FC4B-A4F8-BAD0E1F999D5}" name="Machine " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B2D906ED-F0F7-9448-9AF1-A69813965A44}" name="Ref" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D00B9277-446B-FC4B-A4F8-BAD0E1F999D5}" name="Machine " dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B2D906ED-F0F7-9448-9AF1-A69813965A44}" name="Ref" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{4D0E4E49-F3E9-404C-B205-D9C55910B9E1}" name="Objectif"/>
     <tableColumn id="5" xr3:uid="{1FB481F5-4815-6245-A5D3-BCA9454FBAEF}" name="Qté produite"/>
     <tableColumn id="6" xr3:uid="{6DAFD0A6-7665-B146-A89D-00902FC921DC}" name="Écart">
       <calculatedColumnFormula>E6-F6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EB814DC3-DAC7-6B45-999C-1AC4C9E7E41E}" name="TRS" dataDxfId="0" dataCellStyle="Pourcentage"/>
+    <tableColumn id="7" xr3:uid="{EB814DC3-DAC7-6B45-999C-1AC4C9E7E41E}" name="TRS" dataDxfId="30" dataCellStyle="Pourcentage"/>
     <tableColumn id="8" xr3:uid="{8F9ADACA-4E38-DD4D-8A59-7195BFF9DABC}" name="Commmentaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -43075,14 +43844,70 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}" name="Tableau4" displayName="Tableau4" ref="AI32:AK62" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="AI32:AK62" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF8A1C01-18E8-494B-83B0-7679C44537BE}" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{430A7B71-3CE2-4D74-8DAF-18AED78B5B2D}" name="TRS" dataDxfId="15" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{F1EF3F5F-838A-436F-8A45-EE6CDF2D8D01}" name="Qté" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{64DFE691-45E1-D143-851A-680A815DAC6C}" name="Tableau7" displayName="Tableau7" ref="B5:G7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B5:G7" xr:uid="{64DFE691-45E1-D143-851A-680A815DAC6C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7A40DA9B-3DC3-554A-912A-032D8CED1293}" name="Semaine" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{916009BE-5C8B-2E4E-B164-199C9532C0BE}" name="Réf1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9865418F-4F38-F845-BEB3-FB0B5EF58690}" name="Objectif1" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D5163C87-FA52-5649-97BE-1B0F06EEA8AC}" name="Qté produite1" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7E422F90-9AE5-6D4B-B119-77A6BEE8827D}" name="Écart1" dataDxfId="19">
+      <calculatedColumnFormula>D6-E6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4D828D28-E9DC-2240-94CF-D99CE0E84B89}" name="TRS1" dataDxfId="18"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{95B59A30-D961-5F46-8B7C-70512450DBCC}" name="Tableau8" displayName="Tableau8" ref="J5:O7" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="J5:O7" xr:uid="{95B59A30-D961-5F46-8B7C-70512450DBCC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CF812D47-A20F-F142-B16F-9F9FE0375BCE}" name="Semaine"/>
+    <tableColumn id="2" xr3:uid="{90796B6A-E49A-B44E-9B27-42B25AC96E94}" name="Réf2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{0D462D7D-D71F-4A43-90E6-8F696D8D401A}" name="Objectif2" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{1C8EF3B7-8CB9-5A4F-A614-6E248FC24FB6}" name="Qté produite2" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{A4B22846-5F9F-5546-8FED-9A9AFD9E8FFE}" name="Écart2" dataDxfId="26">
+      <calculatedColumnFormula>L6-M6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6AA84274-951A-7E49-8E8B-05C49ECAC9F3}" name="TRS2" dataDxfId="25" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{803C1018-B7F2-4C4F-B454-48B667FB148B}" name="Tableau9" displayName="Tableau9" ref="R5:W7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="R5:W7" xr:uid="{803C1018-B7F2-4C4F-B454-48B667FB148B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3771A8D3-09F4-6949-A3D8-6A444B2DD1DE}" name="Semaine" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5FC56EC9-B29D-3445-A2D0-1756F1B8054B}" name="Réf3" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CC2A5EF0-0422-7A43-AAFC-1712DBCB1B93}" name="Objectif3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A45617A6-EA18-2F4D-9FBC-89616FE83F77}" name="Qté produite3" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{C902C5D3-6FB2-934F-AAFB-6600C45C3DB6}" name="Écart3" dataDxfId="11">
+      <calculatedColumnFormula>T6-U6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A40C2240-0597-5A4E-A345-2E3C90B6C3DE}" name="TRS3" dataDxfId="10" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E533C6C9-9E89-F246-8E3A-4A9BA87007E6}" name="Tableau10" displayName="Tableau10" ref="Z5:AE7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="Z5:AE7" xr:uid="{E533C6C9-9E89-F246-8E3A-4A9BA87007E6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E342A120-7721-5F41-A4FB-819DB04CABCD}" name="Semaine" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{88D75466-5AEB-9E4A-B242-F04202402D1E}" name="Réf4" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B81C676B-D2EB-9D45-9178-7E41CE730A01}" name="Objectif4" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{05EB4017-949D-FE45-94A4-A9397998E896}" name="Qté produite4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6C9E9CFB-510A-3F41-9F0F-9210347FD2A7}" name="Écart4" dataDxfId="3">
+      <calculatedColumnFormula>AB6-AC6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7E6A5141-13E1-1A42-BF45-F3408A2408CA}" name="TRS4" dataDxfId="2" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -43432,7 +44257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F735DE2E-B152-465A-A336-DF7EA2E14561}">
   <dimension ref="A34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
@@ -43462,6 +44287,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81291E12-FAD3-42EE-8315-E489CB628569}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B35:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="72">
+        <v>60</v>
+      </c>
+      <c r="H35" s="73">
+        <f>G35/60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="72">
+        <v>20</v>
+      </c>
+      <c r="H36" s="73">
+        <f t="shared" ref="H36:H37" si="0">G36/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="72">
+        <v>40</v>
+      </c>
+      <c r="H37" s="73">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4D713-E1D4-4792-8A52-E0B153426225}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -43550,7 +44465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4FCCD-D94F-4CE6-B0D0-6FEF2B76089E}">
   <dimension ref="A4:AK86"/>
   <sheetViews>
@@ -44930,7 +45845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C7256B-A39F-4936-AB81-89CAAB19787C}">
   <dimension ref="B5:I17"/>
   <sheetViews>
@@ -45187,7 +46102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BBB01C-5372-4A16-B78D-B844DEF5F5F8}">
   <dimension ref="B5:I28"/>
   <sheetViews>
@@ -45795,7 +46710,7 @@
   <dimension ref="B3:S312"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
@@ -58854,7 +59769,7 @@
   <dimension ref="B5:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F74" sqref="F74:F75"/>
     </sheetView>
   </sheetViews>
@@ -60608,9 +61523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997D5C8D-4F90-4F47-A6AB-9460E68317DF}">
   <dimension ref="B5:H105"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -63224,36 +64139,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A40D3-9BA8-C84A-9206-0B23B732268D}">
   <dimension ref="B5:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="94" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
@@ -63261,218 +64177,218 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="94">
         <v>46400</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="94">
         <v>29693</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="94">
         <f>E6-F6</f>
         <v>16707</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="99">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="94">
         <v>70400</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F7" s="94">
         <v>44608</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="94">
         <f t="shared" ref="G7:G14" si="0">E7-F7</f>
         <v>25792</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="98">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="94">
         <v>46080</v>
       </c>
-      <c r="F8" s="93">
-        <v>0</v>
-      </c>
-      <c r="G8" s="93">
+      <c r="F8" s="94">
+        <v>0</v>
+      </c>
+      <c r="G8" s="94">
         <f t="shared" si="0"/>
         <v>46080</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="98">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="94">
         <v>70400</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="94">
         <v>46539</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="94">
         <f t="shared" si="0"/>
         <v>23861</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="98">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="94">
         <v>36360</v>
       </c>
-      <c r="F10" s="93">
+      <c r="F10" s="94">
         <v>35638</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="94">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="98">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="94">
         <v>70400</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="94">
         <v>51133</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="94">
         <f t="shared" si="0"/>
         <v>19267</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="98">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="94">
         <v>46080</v>
       </c>
-      <c r="F12" s="93">
-        <v>0</v>
-      </c>
-      <c r="G12" s="93">
+      <c r="F12" s="94">
+        <v>0</v>
+      </c>
+      <c r="G12" s="94">
         <f t="shared" si="0"/>
         <v>46080</v>
       </c>
-      <c r="H12" s="97">
+      <c r="H12" s="98">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="94">
         <v>70400</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="94">
         <v>56086</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="94">
         <f t="shared" si="0"/>
         <v>14314</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="98">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="94">
         <v>70400</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="94">
         <v>56086</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="94">
         <f t="shared" ref="G14" si="1">E14-F14</f>
         <v>14314</v>
       </c>
-      <c r="H14" s="97">
+      <c r="H14" s="98">
         <v>45</v>
       </c>
     </row>
@@ -63486,6 +64402,279 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4603132-1DE4-CF42-AB98-D4DDD8FBDBF7}">
+  <dimension ref="B4:AE7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="21" max="21" width="13.5" customWidth="1"/>
+    <col min="29" max="29" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B5" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="V5" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="W5" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z5" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB5" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC5" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD5" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE5" s="100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B6" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="101">
+        <v>46400</v>
+      </c>
+      <c r="E6" s="101">
+        <v>29693</v>
+      </c>
+      <c r="F6" s="100">
+        <f>D6-E6</f>
+        <v>16707</v>
+      </c>
+      <c r="G6" s="103">
+        <v>0.64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="92">
+        <v>70400</v>
+      </c>
+      <c r="M6" s="92">
+        <v>44608</v>
+      </c>
+      <c r="N6" s="92">
+        <f t="shared" ref="N6:N7" si="0">L6-M6</f>
+        <v>25792</v>
+      </c>
+      <c r="O6" s="104">
+        <v>0.64</v>
+      </c>
+      <c r="R6" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="101">
+        <v>46080</v>
+      </c>
+      <c r="U6" s="101">
+        <v>0</v>
+      </c>
+      <c r="V6" s="101">
+        <f t="shared" ref="V6:V7" si="1">T6-U6</f>
+        <v>46080</v>
+      </c>
+      <c r="W6" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA6" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="101">
+        <v>70400</v>
+      </c>
+      <c r="AC6" s="101">
+        <v>46539</v>
+      </c>
+      <c r="AD6" s="101">
+        <f t="shared" ref="AD6:AD7" si="2">AB6-AC6</f>
+        <v>23861</v>
+      </c>
+      <c r="AE6" s="103">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B7" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="101">
+        <v>36360</v>
+      </c>
+      <c r="E7" s="101">
+        <v>35638</v>
+      </c>
+      <c r="F7" s="100">
+        <f>D7-E7</f>
+        <v>722</v>
+      </c>
+      <c r="G7" s="103">
+        <v>0.98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="92">
+        <v>70400</v>
+      </c>
+      <c r="M7" s="92">
+        <v>51133</v>
+      </c>
+      <c r="N7" s="92">
+        <f t="shared" si="0"/>
+        <v>19267</v>
+      </c>
+      <c r="O7" s="104">
+        <v>0.73</v>
+      </c>
+      <c r="R7" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="101">
+        <v>46080</v>
+      </c>
+      <c r="U7" s="101">
+        <v>0</v>
+      </c>
+      <c r="V7" s="101">
+        <f t="shared" si="1"/>
+        <v>46080</v>
+      </c>
+      <c r="W7" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA7" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="101">
+        <v>70400</v>
+      </c>
+      <c r="AC7" s="101">
+        <v>56086</v>
+      </c>
+      <c r="AD7" s="101">
+        <f t="shared" si="2"/>
+        <v>14314</v>
+      </c>
+      <c r="AE7" s="103">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660EC4F3-5481-4A5E-94A2-6A5B41FC264F}">
   <dimension ref="B1:BS29"/>
   <sheetViews>
@@ -63732,7 +64921,7 @@
       <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="93">
         <v>26</v>
       </c>
       <c r="F4" t="s">
@@ -63758,7 +64947,7 @@
       <c r="N4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="92">
+      <c r="O4" s="93">
         <v>2210</v>
       </c>
       <c r="P4" s="62">
@@ -63773,13 +64962,13 @@
       <c r="U4" s="65">
         <v>0.96</v>
       </c>
-      <c r="V4" s="92">
+      <c r="V4" s="93">
         <v>12600</v>
       </c>
-      <c r="W4" s="92">
+      <c r="W4" s="93">
         <v>6800</v>
       </c>
-      <c r="X4" s="92">
+      <c r="X4" s="93">
         <v>19400</v>
       </c>
       <c r="Y4" t="s">
@@ -63798,13 +64987,13 @@
       <c r="AD4" s="65">
         <v>0.39</v>
       </c>
-      <c r="AE4" s="92">
+      <c r="AE4" s="93">
         <v>7250</v>
       </c>
-      <c r="AF4" s="92">
+      <c r="AF4" s="93">
         <v>4750</v>
       </c>
-      <c r="AG4" s="92">
+      <c r="AG4" s="93">
         <v>12000</v>
       </c>
       <c r="AH4" t="s">
@@ -63823,13 +65012,13 @@
       <c r="AM4" s="65">
         <v>0.57599999999999996</v>
       </c>
-      <c r="AN4" s="92">
+      <c r="AN4" s="93">
         <v>9400</v>
       </c>
-      <c r="AO4" s="92">
+      <c r="AO4" s="93">
         <v>600</v>
       </c>
-      <c r="AP4" s="92">
+      <c r="AP4" s="93">
         <v>10000</v>
       </c>
       <c r="AQ4" t="s">
@@ -63848,13 +65037,13 @@
       <c r="AU4" s="65">
         <v>0.84</v>
       </c>
-      <c r="AV4" s="92">
+      <c r="AV4" s="93">
         <v>13460</v>
       </c>
-      <c r="AW4" s="92">
+      <c r="AW4" s="93">
         <v>8950</v>
       </c>
-      <c r="AX4" s="92">
+      <c r="AX4" s="93">
         <v>22410</v>
       </c>
       <c r="AY4" t="s">
@@ -63870,7 +65059,7 @@
       <c r="BC4" s="65">
         <v>0.88</v>
       </c>
-      <c r="BD4" s="92">
+      <c r="BD4" s="93">
         <v>10150</v>
       </c>
       <c r="BG4" s="64">
@@ -63879,7 +65068,7 @@
       <c r="BH4" s="65">
         <v>0.74</v>
       </c>
-      <c r="BI4" s="92">
+      <c r="BI4" s="93">
         <v>13051</v>
       </c>
       <c r="BL4" s="64">
@@ -63888,7 +65077,7 @@
       <c r="BM4" s="65">
         <v>0</v>
       </c>
-      <c r="BN4" s="92">
+      <c r="BN4" s="93">
         <v>0</v>
       </c>
       <c r="BQ4" s="64">
@@ -63897,7 +65086,7 @@
       <c r="BR4" s="65">
         <v>0.81</v>
       </c>
-      <c r="BS4" s="92">
+      <c r="BS4" s="93">
         <v>14246</v>
       </c>
     </row>
@@ -63905,7 +65094,7 @@
       <c r="B5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="93">
         <v>32</v>
       </c>
       <c r="I5" s="61" t="s">
@@ -63921,7 +65110,7 @@
       <c r="N5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="92">
+      <c r="O5" s="93">
         <v>1823</v>
       </c>
       <c r="P5" s="62">
@@ -63936,13 +65125,13 @@
       <c r="U5" s="65">
         <v>0.99329999999999996</v>
       </c>
-      <c r="V5" s="92">
+      <c r="V5" s="93">
         <v>12800</v>
       </c>
-      <c r="W5" s="92">
+      <c r="W5" s="93">
         <v>7000</v>
       </c>
-      <c r="X5" s="92">
+      <c r="X5" s="93">
         <v>19800</v>
       </c>
       <c r="Y5" t="s">
@@ -63961,13 +65150,13 @@
       <c r="AD5" s="65">
         <v>0.67330000000000001</v>
       </c>
-      <c r="AE5" s="92">
+      <c r="AE5" s="93">
         <v>18600</v>
       </c>
-      <c r="AF5" s="92">
+      <c r="AF5" s="93">
         <v>6700</v>
       </c>
-      <c r="AG5" s="92">
+      <c r="AG5" s="93">
         <v>25300</v>
       </c>
       <c r="AH5" t="s">
@@ -63986,13 +65175,13 @@
       <c r="AM5" s="65">
         <v>0.63</v>
       </c>
-      <c r="AN5" s="92">
+      <c r="AN5" s="93">
         <v>14000</v>
       </c>
-      <c r="AO5" s="92">
+      <c r="AO5" s="93">
         <v>1200</v>
       </c>
-      <c r="AP5" s="92">
+      <c r="AP5" s="93">
         <v>15200</v>
       </c>
       <c r="AQ5" t="s">
@@ -64011,13 +65200,13 @@
       <c r="AU5" s="65">
         <v>0.63329999999999997</v>
       </c>
-      <c r="AV5" s="92">
+      <c r="AV5" s="93">
         <v>21250</v>
       </c>
-      <c r="AW5" s="92">
+      <c r="AW5" s="93">
         <v>1200</v>
       </c>
-      <c r="AX5" s="92">
+      <c r="AX5" s="93">
         <v>22450</v>
       </c>
       <c r="AY5" t="s">
@@ -64033,7 +65222,7 @@
       <c r="BC5" s="65">
         <v>0.25</v>
       </c>
-      <c r="BD5" s="92">
+      <c r="BD5" s="93">
         <v>2888</v>
       </c>
       <c r="BG5" s="64">
@@ -64042,7 +65231,7 @@
       <c r="BH5" s="65">
         <v>0.82</v>
       </c>
-      <c r="BI5" s="92">
+      <c r="BI5" s="93">
         <v>14372</v>
       </c>
       <c r="BL5" s="64">
@@ -64051,7 +65240,7 @@
       <c r="BM5" s="65">
         <v>0</v>
       </c>
-      <c r="BN5" s="92">
+      <c r="BN5" s="93">
         <v>0</v>
       </c>
       <c r="BQ5" s="64">
@@ -64060,7 +65249,7 @@
       <c r="BR5" s="65">
         <v>0.76</v>
       </c>
-      <c r="BS5" s="92">
+      <c r="BS5" s="93">
         <v>13345</v>
       </c>
     </row>
@@ -64068,7 +65257,7 @@
       <c r="B6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="93">
         <v>5</v>
       </c>
       <c r="I6" s="61" t="s">
@@ -64080,7 +65269,7 @@
       <c r="N6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="92">
+      <c r="O6" s="93">
         <v>270</v>
       </c>
       <c r="P6" s="62">
@@ -64095,13 +65284,13 @@
       <c r="U6" s="65">
         <v>0.75</v>
       </c>
-      <c r="V6" s="92">
+      <c r="V6" s="93">
         <v>4900</v>
       </c>
-      <c r="W6" s="92">
-        <v>0</v>
-      </c>
-      <c r="X6" s="92">
+      <c r="W6" s="93">
+        <v>0</v>
+      </c>
+      <c r="X6" s="93">
         <v>4900</v>
       </c>
       <c r="Y6" t="s">
@@ -64120,13 +65309,13 @@
       <c r="AD6" s="65">
         <v>0.51</v>
       </c>
-      <c r="AE6" s="92">
+      <c r="AE6" s="93">
         <v>4500</v>
       </c>
-      <c r="AF6" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="92">
+      <c r="AF6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="93">
         <v>4500</v>
       </c>
       <c r="AH6" t="s">
@@ -64145,13 +65334,13 @@
       <c r="AM6" s="65">
         <v>0.43</v>
       </c>
-      <c r="AN6" s="92">
+      <c r="AN6" s="93">
         <v>2500</v>
       </c>
-      <c r="AO6" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="92">
+      <c r="AO6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="93">
         <v>2500</v>
       </c>
       <c r="AQ6" t="s">
@@ -64170,13 +65359,13 @@
       <c r="AU6" s="65">
         <v>0.34</v>
       </c>
-      <c r="AV6" s="92">
+      <c r="AV6" s="93">
         <v>3000</v>
       </c>
-      <c r="AW6" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="92">
+      <c r="AW6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="93">
         <v>3000</v>
       </c>
       <c r="AY6" t="s">
@@ -64192,7 +65381,7 @@
       <c r="BC6" s="65">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BD6" s="92">
+      <c r="BD6" s="93">
         <v>7155</v>
       </c>
       <c r="BG6" s="64">
@@ -64201,7 +65390,7 @@
       <c r="BH6" s="65">
         <v>0.73</v>
       </c>
-      <c r="BI6" s="92">
+      <c r="BI6" s="93">
         <v>12925</v>
       </c>
       <c r="BL6" s="64">
@@ -64210,7 +65399,7 @@
       <c r="BM6" s="65">
         <v>0</v>
       </c>
-      <c r="BN6" s="92">
+      <c r="BN6" s="93">
         <v>0</v>
       </c>
       <c r="BQ6" s="64">
@@ -64219,7 +65408,7 @@
       <c r="BR6" s="65">
         <v>0.67</v>
       </c>
-      <c r="BS6" s="92">
+      <c r="BS6" s="93">
         <v>11808</v>
       </c>
     </row>
@@ -64227,7 +65416,7 @@
       <c r="B7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="93">
         <v>8</v>
       </c>
       <c r="I7" s="61" t="s">
@@ -64239,7 +65428,7 @@
       <c r="N7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="92">
+      <c r="O7" s="93">
         <v>1556</v>
       </c>
       <c r="P7" s="62">
@@ -64254,13 +65443,13 @@
       <c r="U7" s="65">
         <v>0</v>
       </c>
-      <c r="V7" s="92">
-        <v>0</v>
-      </c>
-      <c r="W7" s="92">
-        <v>0</v>
-      </c>
-      <c r="X7" s="92">
+      <c r="V7" s="93">
+        <v>0</v>
+      </c>
+      <c r="W7" s="93">
+        <v>0</v>
+      </c>
+      <c r="X7" s="93">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
@@ -64279,13 +65468,13 @@
       <c r="AD7" s="65">
         <v>0.81</v>
       </c>
-      <c r="AE7" s="92">
+      <c r="AE7" s="93">
         <v>13250</v>
       </c>
-      <c r="AF7" s="92">
+      <c r="AF7" s="93">
         <v>8500</v>
       </c>
-      <c r="AG7" s="92">
+      <c r="AG7" s="93">
         <v>21750</v>
       </c>
       <c r="AH7" t="s">
@@ -64304,13 +65493,13 @@
       <c r="AM7" s="65">
         <v>0.45</v>
       </c>
-      <c r="AN7" s="92">
+      <c r="AN7" s="93">
         <v>7900</v>
       </c>
-      <c r="AO7" s="92">
+      <c r="AO7" s="93">
         <v>1800</v>
       </c>
-      <c r="AP7" s="92">
+      <c r="AP7" s="93">
         <v>9700</v>
       </c>
       <c r="AQ7" t="s">
@@ -64329,13 +65518,13 @@
       <c r="AU7" s="65">
         <v>0.19</v>
       </c>
-      <c r="AV7" s="92">
+      <c r="AV7" s="93">
         <v>6400</v>
       </c>
-      <c r="AW7" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="92">
+      <c r="AW7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="93">
         <v>6400</v>
       </c>
       <c r="AY7" t="s">
@@ -64351,7 +65540,7 @@
       <c r="BC7" s="65">
         <v>0.82</v>
       </c>
-      <c r="BD7" s="92">
+      <c r="BD7" s="93">
         <v>9500</v>
       </c>
       <c r="BG7" s="64">
@@ -64360,7 +65549,7 @@
       <c r="BH7" s="65">
         <v>0.24</v>
       </c>
-      <c r="BI7" s="92">
+      <c r="BI7" s="93">
         <v>4260</v>
       </c>
       <c r="BL7" s="64">
@@ -64369,7 +65558,7 @@
       <c r="BM7" s="65">
         <v>0</v>
       </c>
-      <c r="BN7" s="92">
+      <c r="BN7" s="93">
         <v>0</v>
       </c>
       <c r="BQ7" s="64">
@@ -64378,7 +65567,7 @@
       <c r="BR7" s="65">
         <v>0.41</v>
       </c>
-      <c r="BS7" s="92">
+      <c r="BS7" s="93">
         <v>7160</v>
       </c>
     </row>
@@ -64386,7 +65575,7 @@
       <c r="B8" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="93">
         <v>71</v>
       </c>
       <c r="I8" s="61" t="s">
@@ -64398,10 +65587,10 @@
       <c r="N8" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="92">
+      <c r="O8" s="93">
         <v>5859</v>
       </c>
-      <c r="P8" s="92">
+      <c r="P8" s="93">
         <v>97.65</v>
       </c>
       <c r="S8" s="64">
@@ -64413,13 +65602,13 @@
       <c r="U8" s="65">
         <v>0</v>
       </c>
-      <c r="V8" s="92">
-        <v>0</v>
-      </c>
-      <c r="W8" s="92">
-        <v>0</v>
-      </c>
-      <c r="X8" s="92">
+      <c r="V8" s="93">
+        <v>0</v>
+      </c>
+      <c r="W8" s="93">
+        <v>0</v>
+      </c>
+      <c r="X8" s="93">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
@@ -64438,13 +65627,13 @@
       <c r="AD8" s="65">
         <v>0.22</v>
       </c>
-      <c r="AE8" s="92">
+      <c r="AE8" s="93">
         <v>5850</v>
       </c>
-      <c r="AF8" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="92">
+      <c r="AF8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="93">
         <v>5850</v>
       </c>
       <c r="AH8" t="s">
@@ -64463,13 +65652,13 @@
       <c r="AM8" s="65">
         <v>0</v>
       </c>
-      <c r="AN8" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="92">
+      <c r="AN8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="93">
         <v>0</v>
       </c>
       <c r="AQ8" t="s">
@@ -64488,13 +65677,13 @@
       <c r="AU8" s="65">
         <v>0.05</v>
       </c>
-      <c r="AV8" s="92">
+      <c r="AV8" s="93">
         <v>2340</v>
       </c>
-      <c r="AW8" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="92">
+      <c r="AW8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="93">
         <v>2340</v>
       </c>
       <c r="AY8" t="s">
@@ -64510,7 +65699,7 @@
       <c r="BC8" s="65">
         <v>1</v>
       </c>
-      <c r="BD8" s="92">
+      <c r="BD8" s="93">
         <v>13726</v>
       </c>
       <c r="BG8" s="64">
@@ -64519,7 +65708,7 @@
       <c r="BH8" s="65">
         <v>1</v>
       </c>
-      <c r="BI8" s="92">
+      <c r="BI8" s="93">
         <v>7460</v>
       </c>
       <c r="BL8" s="64">
@@ -64528,7 +65717,7 @@
       <c r="BM8" s="65">
         <v>0</v>
       </c>
-      <c r="BN8" s="92">
+      <c r="BN8" s="93">
         <v>0</v>
       </c>
       <c r="BQ8" s="64">
@@ -64537,7 +65726,7 @@
       <c r="BR8" s="65">
         <v>1</v>
       </c>
-      <c r="BS8" s="92">
+      <c r="BS8" s="93">
         <v>7935</v>
       </c>
     </row>
@@ -64557,13 +65746,13 @@
       <c r="U9" s="65">
         <v>0</v>
       </c>
-      <c r="V9" s="92">
-        <v>0</v>
-      </c>
-      <c r="W9" s="92">
-        <v>0</v>
-      </c>
-      <c r="X9" s="92">
+      <c r="V9" s="93">
+        <v>0</v>
+      </c>
+      <c r="W9" s="93">
+        <v>0</v>
+      </c>
+      <c r="X9" s="93">
         <v>0</v>
       </c>
       <c r="AB9" s="64">
@@ -64575,13 +65764,13 @@
       <c r="AD9" s="65">
         <v>0</v>
       </c>
-      <c r="AE9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="92">
+      <c r="AE9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="93">
         <v>0</v>
       </c>
       <c r="AK9" s="64">
@@ -64593,13 +65782,13 @@
       <c r="AM9" s="65">
         <v>0</v>
       </c>
-      <c r="AN9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="92">
+      <c r="AN9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="93">
         <v>0</v>
       </c>
       <c r="AS9" s="64">
@@ -64611,13 +65800,13 @@
       <c r="AU9" s="65">
         <v>0.26</v>
       </c>
-      <c r="AV9" s="92">
+      <c r="AV9" s="93">
         <v>6900</v>
       </c>
-      <c r="AW9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="92">
+      <c r="AW9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="93">
         <v>6900</v>
       </c>
       <c r="BB9" s="64">
@@ -64626,7 +65815,7 @@
       <c r="BC9" s="65">
         <v>0</v>
       </c>
-      <c r="BD9" s="92">
+      <c r="BD9" s="93">
         <v>0</v>
       </c>
       <c r="BG9" s="64">
@@ -64635,7 +65824,7 @@
       <c r="BH9" s="65">
         <v>0.62</v>
       </c>
-      <c r="BI9" s="92">
+      <c r="BI9" s="93">
         <v>10800</v>
       </c>
       <c r="BL9" s="64">
@@ -64644,7 +65833,7 @@
       <c r="BM9" s="65">
         <v>0</v>
       </c>
-      <c r="BN9" s="92">
+      <c r="BN9" s="93">
         <v>0</v>
       </c>
       <c r="BQ9" s="64">
@@ -64653,7 +65842,7 @@
       <c r="BR9" s="65">
         <v>0.66</v>
       </c>
-      <c r="BS9" s="92">
+      <c r="BS9" s="93">
         <v>11500</v>
       </c>
     </row>
@@ -64673,13 +65862,13 @@
       <c r="U10" s="65">
         <v>0</v>
       </c>
-      <c r="V10" s="92">
-        <v>0</v>
-      </c>
-      <c r="W10" s="92">
-        <v>0</v>
-      </c>
-      <c r="X10" s="92">
+      <c r="V10" s="93">
+        <v>0</v>
+      </c>
+      <c r="W10" s="93">
+        <v>0</v>
+      </c>
+      <c r="X10" s="93">
         <v>0</v>
       </c>
       <c r="AB10" s="64">
@@ -64691,13 +65880,13 @@
       <c r="AD10" s="65">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="AE10" s="92">
+      <c r="AE10" s="93">
         <v>5200</v>
       </c>
-      <c r="AF10" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="92">
+      <c r="AF10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="93">
         <v>5200</v>
       </c>
       <c r="AK10" s="64">
@@ -64709,13 +65898,13 @@
       <c r="AM10" s="65">
         <v>0</v>
       </c>
-      <c r="AN10" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="92">
+      <c r="AN10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="93">
         <v>0</v>
       </c>
       <c r="AS10" s="64">
@@ -64727,13 +65916,13 @@
       <c r="AU10" s="65">
         <v>0.27300000000000002</v>
       </c>
-      <c r="AV10" s="92">
+      <c r="AV10" s="93">
         <v>7180</v>
       </c>
-      <c r="AW10" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="92">
+      <c r="AW10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="93">
         <v>7180</v>
       </c>
       <c r="BB10" s="64">
@@ -64742,7 +65931,7 @@
       <c r="BC10" s="65">
         <v>0.96</v>
       </c>
-      <c r="BD10" s="92">
+      <c r="BD10" s="93">
         <v>10050</v>
       </c>
       <c r="BG10" s="64">
@@ -64751,7 +65940,7 @@
       <c r="BH10" s="65">
         <v>0.82</v>
       </c>
-      <c r="BI10" s="92">
+      <c r="BI10" s="93">
         <v>14403</v>
       </c>
       <c r="BL10" s="64">
@@ -64760,7 +65949,7 @@
       <c r="BM10" s="65">
         <v>0</v>
       </c>
-      <c r="BN10" s="92">
+      <c r="BN10" s="93">
         <v>0</v>
       </c>
       <c r="BQ10" s="64">
@@ -64769,7 +65958,7 @@
       <c r="BR10" s="65">
         <v>0.9</v>
       </c>
-      <c r="BS10" s="92">
+      <c r="BS10" s="93">
         <v>15776</v>
       </c>
     </row>
@@ -64789,13 +65978,13 @@
       <c r="U11" s="65">
         <v>0</v>
       </c>
-      <c r="V11" s="92">
-        <v>0</v>
-      </c>
-      <c r="W11" s="92">
-        <v>0</v>
-      </c>
-      <c r="X11" s="92">
+      <c r="V11" s="93">
+        <v>0</v>
+      </c>
+      <c r="W11" s="93">
+        <v>0</v>
+      </c>
+      <c r="X11" s="93">
         <v>0</v>
       </c>
       <c r="AB11" s="64">
@@ -64807,13 +65996,13 @@
       <c r="AD11" s="65">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AE11" s="92">
+      <c r="AE11" s="93">
         <v>4340</v>
       </c>
-      <c r="AF11" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="92">
+      <c r="AF11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="93">
         <v>4340</v>
       </c>
       <c r="AK11" s="64">
@@ -64825,13 +66014,13 @@
       <c r="AM11" s="65">
         <v>0</v>
       </c>
-      <c r="AN11" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="92">
+      <c r="AN11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="93">
         <v>0</v>
       </c>
       <c r="AS11" s="64">
@@ -64843,13 +66032,13 @@
       <c r="AU11" s="65">
         <v>0.126</v>
       </c>
-      <c r="AV11" s="92">
+      <c r="AV11" s="93">
         <v>3320</v>
       </c>
-      <c r="AW11" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="92">
+      <c r="AW11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="93">
         <v>3320</v>
       </c>
       <c r="BB11" s="64">
@@ -64858,7 +66047,7 @@
       <c r="BC11" s="65">
         <v>0.98</v>
       </c>
-      <c r="BD11" s="92">
+      <c r="BD11" s="93">
         <v>12660</v>
       </c>
       <c r="BG11" s="64">
@@ -64867,7 +66056,7 @@
       <c r="BH11" s="65">
         <v>0.84</v>
       </c>
-      <c r="BI11" s="92">
+      <c r="BI11" s="93">
         <v>14750</v>
       </c>
       <c r="BL11" s="64">
@@ -64876,7 +66065,7 @@
       <c r="BM11" s="65">
         <v>0</v>
       </c>
-      <c r="BN11" s="92">
+      <c r="BN11" s="93">
         <v>0</v>
       </c>
       <c r="BQ11" s="64">
@@ -64885,7 +66074,7 @@
       <c r="BR11" s="65">
         <v>0.81</v>
       </c>
-      <c r="BS11" s="92">
+      <c r="BS11" s="93">
         <v>14340</v>
       </c>
     </row>
@@ -64905,13 +66094,13 @@
       <c r="U12" s="65">
         <v>0</v>
       </c>
-      <c r="V12" s="92">
-        <v>0</v>
-      </c>
-      <c r="W12" s="92">
-        <v>0</v>
-      </c>
-      <c r="X12" s="92">
+      <c r="V12" s="93">
+        <v>0</v>
+      </c>
+      <c r="W12" s="93">
+        <v>0</v>
+      </c>
+      <c r="X12" s="93">
         <v>0</v>
       </c>
       <c r="AB12" s="64">
@@ -64923,13 +66112,13 @@
       <c r="AD12" s="65">
         <v>0.24</v>
       </c>
-      <c r="AE12" s="92">
+      <c r="AE12" s="93">
         <v>6400</v>
       </c>
-      <c r="AF12" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="92">
+      <c r="AF12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="93">
         <v>6400</v>
       </c>
       <c r="AK12" s="64">
@@ -64941,13 +66130,13 @@
       <c r="AM12" s="65">
         <v>0</v>
       </c>
-      <c r="AN12" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="92">
+      <c r="AN12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="93">
         <v>0</v>
       </c>
       <c r="AS12" s="64">
@@ -64959,13 +66148,13 @@
       <c r="AU12" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AV12" s="92">
+      <c r="AV12" s="93">
         <v>7350</v>
       </c>
-      <c r="AW12" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="92">
+      <c r="AW12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="93">
         <v>7350</v>
       </c>
       <c r="BB12" s="64">
@@ -64974,7 +66163,7 @@
       <c r="BC12" s="65">
         <v>1</v>
       </c>
-      <c r="BD12" s="92">
+      <c r="BD12" s="93">
         <v>12928</v>
       </c>
       <c r="BG12" s="64">
@@ -64983,7 +66172,7 @@
       <c r="BH12" s="65">
         <v>0.64</v>
       </c>
-      <c r="BI12" s="92">
+      <c r="BI12" s="93">
         <v>11180</v>
       </c>
       <c r="BL12" s="64">
@@ -64992,7 +66181,7 @@
       <c r="BM12" s="65">
         <v>0</v>
       </c>
-      <c r="BN12" s="92">
+      <c r="BN12" s="93">
         <v>0</v>
       </c>
       <c r="BQ12" s="64">
@@ -65001,7 +66190,7 @@
       <c r="BR12" s="65">
         <v>0.82</v>
       </c>
-      <c r="BS12" s="92">
+      <c r="BS12" s="93">
         <v>14470</v>
       </c>
     </row>
@@ -65021,13 +66210,13 @@
       <c r="U13" s="65">
         <v>0.22</v>
       </c>
-      <c r="V13" s="92">
+      <c r="V13" s="93">
         <v>2960</v>
       </c>
-      <c r="W13" s="92">
-        <v>0</v>
-      </c>
-      <c r="X13" s="92">
+      <c r="W13" s="93">
+        <v>0</v>
+      </c>
+      <c r="X13" s="93">
         <v>2960</v>
       </c>
       <c r="AB13" s="64">
@@ -65039,13 +66228,13 @@
       <c r="AD13" s="65">
         <v>0.51</v>
       </c>
-      <c r="AE13" s="92">
+      <c r="AE13" s="93">
         <v>13500</v>
       </c>
-      <c r="AF13" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="92">
+      <c r="AF13" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="93">
         <v>13500</v>
       </c>
       <c r="AK13" s="64">
@@ -65057,13 +66246,13 @@
       <c r="AM13" s="65">
         <v>0</v>
       </c>
-      <c r="AN13" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="92">
+      <c r="AN13" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="93">
         <v>0</v>
       </c>
       <c r="AS13" s="64">
@@ -65075,13 +66264,13 @@
       <c r="AU13" s="65">
         <v>0.47</v>
       </c>
-      <c r="AV13" s="92">
+      <c r="AV13" s="93">
         <v>12500</v>
       </c>
-      <c r="AW13" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="92">
+      <c r="AW13" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="93">
         <v>12500</v>
       </c>
       <c r="BB13" s="64">
@@ -65090,7 +66279,7 @@
       <c r="BC13" s="65">
         <v>0</v>
       </c>
-      <c r="BD13" s="92">
+      <c r="BD13" s="93">
         <v>0</v>
       </c>
       <c r="BG13" s="64">
@@ -65099,7 +66288,7 @@
       <c r="BH13" s="65">
         <v>0.33</v>
       </c>
-      <c r="BI13" s="92">
+      <c r="BI13" s="93">
         <v>5775</v>
       </c>
       <c r="BL13" s="64">
@@ -65108,7 +66297,7 @@
       <c r="BM13" s="65">
         <v>0.88</v>
       </c>
-      <c r="BN13" s="92">
+      <c r="BN13" s="93">
         <v>10138</v>
       </c>
       <c r="BQ13" s="64">
@@ -65117,7 +66306,7 @@
       <c r="BR13" s="65">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BS13" s="92">
+      <c r="BS13" s="93">
         <v>9700</v>
       </c>
     </row>
@@ -65125,7 +66314,7 @@
       <c r="I14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="92">
+      <c r="J14" s="93">
         <v>5859</v>
       </c>
       <c r="S14" s="64">
@@ -65137,13 +66326,13 @@
       <c r="U14" s="65">
         <v>0.36</v>
       </c>
-      <c r="V14" s="92">
+      <c r="V14" s="93">
         <v>4220</v>
       </c>
-      <c r="W14" s="92">
+      <c r="W14" s="93">
         <v>580</v>
       </c>
-      <c r="X14" s="92">
+      <c r="X14" s="93">
         <v>4800</v>
       </c>
       <c r="AB14" s="64">
@@ -65155,13 +66344,13 @@
       <c r="AD14" s="65">
         <v>0.75</v>
       </c>
-      <c r="AE14" s="92">
+      <c r="AE14" s="93">
         <v>11200</v>
       </c>
-      <c r="AF14" s="92">
+      <c r="AF14" s="93">
         <v>8600</v>
       </c>
-      <c r="AG14" s="92">
+      <c r="AG14" s="93">
         <v>19800</v>
       </c>
       <c r="AK14" s="64">
@@ -65173,13 +66362,13 @@
       <c r="AM14" s="65">
         <v>0</v>
       </c>
-      <c r="AN14" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="92">
+      <c r="AN14" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="93">
         <v>0</v>
       </c>
       <c r="AS14" s="64">
@@ -65191,13 +66380,13 @@
       <c r="AU14" s="65">
         <v>0.69</v>
       </c>
-      <c r="AV14" s="92">
+      <c r="AV14" s="93">
         <v>10000</v>
       </c>
-      <c r="AW14" s="92">
+      <c r="AW14" s="93">
         <v>8400</v>
       </c>
-      <c r="AX14" s="92">
+      <c r="AX14" s="93">
         <v>18400</v>
       </c>
       <c r="BB14" s="64" t="s">
@@ -65206,7 +66395,7 @@
       <c r="BC14" s="65">
         <v>6.4599999999999991</v>
       </c>
-      <c r="BD14" s="92">
+      <c r="BD14" s="93">
         <v>79057</v>
       </c>
       <c r="BG14" s="64" t="s">
@@ -65215,7 +66404,7 @@
       <c r="BH14" s="65">
         <v>6.78</v>
       </c>
-      <c r="BI14" s="92">
+      <c r="BI14" s="93">
         <v>108976</v>
       </c>
       <c r="BL14" s="64" t="s">
@@ -65224,7 +66413,7 @@
       <c r="BM14" s="65">
         <v>0.88</v>
       </c>
-      <c r="BN14" s="92">
+      <c r="BN14" s="93">
         <v>10138</v>
       </c>
       <c r="BQ14" s="64" t="s">
@@ -65233,7 +66422,7 @@
       <c r="BR14" s="65">
         <v>7.3900000000000015</v>
       </c>
-      <c r="BS14" s="92">
+      <c r="BS14" s="93">
         <v>120280</v>
       </c>
     </row>
@@ -65247,13 +66436,13 @@
       <c r="U15" s="65">
         <v>0.68</v>
       </c>
-      <c r="V15" s="92">
+      <c r="V15" s="93">
         <v>18200</v>
       </c>
-      <c r="W15" s="92">
+      <c r="W15" s="93">
         <v>1200</v>
       </c>
-      <c r="X15" s="92">
+      <c r="X15" s="93">
         <v>19400</v>
       </c>
       <c r="AB15" s="64">
@@ -65265,13 +66454,13 @@
       <c r="AD15" s="65">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AE15" s="92">
+      <c r="AE15" s="93">
         <v>14950</v>
       </c>
-      <c r="AF15" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="92">
+      <c r="AF15" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="93">
         <v>14950</v>
       </c>
       <c r="AK15" s="64">
@@ -65283,13 +66472,13 @@
       <c r="AM15" s="65">
         <v>0</v>
       </c>
-      <c r="AN15" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="92">
+      <c r="AN15" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="93">
         <v>0</v>
       </c>
       <c r="AS15" s="64">
@@ -65301,13 +66490,13 @@
       <c r="AU15" s="65">
         <v>0.36</v>
       </c>
-      <c r="AV15" s="92">
+      <c r="AV15" s="93">
         <v>11425</v>
       </c>
-      <c r="AW15" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="92">
+      <c r="AW15" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="93">
         <v>11425</v>
       </c>
     </row>
@@ -65321,13 +66510,13 @@
       <c r="U16" s="65">
         <v>0</v>
       </c>
-      <c r="V16" s="92">
-        <v>0</v>
-      </c>
-      <c r="W16" s="92">
-        <v>0</v>
-      </c>
-      <c r="X16" s="92">
+      <c r="V16" s="93">
+        <v>0</v>
+      </c>
+      <c r="W16" s="93">
+        <v>0</v>
+      </c>
+      <c r="X16" s="93">
         <v>0</v>
       </c>
       <c r="AB16" s="64">
@@ -65339,13 +66528,13 @@
       <c r="AD16" s="65">
         <v>0</v>
       </c>
-      <c r="AE16" s="92">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="92">
+      <c r="AE16" s="93">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="93">
         <v>0</v>
       </c>
       <c r="AK16" s="64">
@@ -65357,13 +66546,13 @@
       <c r="AM16" s="65">
         <v>0</v>
       </c>
-      <c r="AN16" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="92">
+      <c r="AN16" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="93">
         <v>0</v>
       </c>
       <c r="AS16" s="64">
@@ -65375,13 +66564,13 @@
       <c r="AU16" s="65">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AV16" s="92">
+      <c r="AV16" s="93">
         <v>10066</v>
       </c>
-      <c r="AW16" s="92">
+      <c r="AW16" s="93">
         <v>5033</v>
       </c>
-      <c r="AX16" s="92">
+      <c r="AX16" s="93">
         <v>15099</v>
       </c>
     </row>
@@ -65395,13 +66584,13 @@
       <c r="U17" s="65">
         <v>0</v>
       </c>
-      <c r="V17" s="92">
-        <v>0</v>
-      </c>
-      <c r="W17" s="92">
-        <v>0</v>
-      </c>
-      <c r="X17" s="92">
+      <c r="V17" s="93">
+        <v>0</v>
+      </c>
+      <c r="W17" s="93">
+        <v>0</v>
+      </c>
+      <c r="X17" s="93">
         <v>0</v>
       </c>
       <c r="AB17" s="64">
@@ -65413,13 +66602,13 @@
       <c r="AD17" s="65">
         <v>0.49</v>
       </c>
-      <c r="AE17" s="92">
+      <c r="AE17" s="93">
         <v>14000</v>
       </c>
-      <c r="AF17" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="92">
+      <c r="AF17" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="93">
         <v>14000</v>
       </c>
       <c r="AK17" s="64">
@@ -65431,13 +66620,13 @@
       <c r="AM17" s="65">
         <v>0</v>
       </c>
-      <c r="AN17" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="92">
+      <c r="AN17" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="93">
         <v>0</v>
       </c>
       <c r="AS17" s="64">
@@ -65449,13 +66638,13 @@
       <c r="AU17" s="65">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AV17" s="92">
+      <c r="AV17" s="93">
         <v>15000</v>
       </c>
-      <c r="AW17" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="92">
+      <c r="AW17" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="93">
         <v>15000</v>
       </c>
     </row>
@@ -65469,13 +66658,13 @@
       <c r="U18" s="65">
         <v>0</v>
       </c>
-      <c r="V18" s="92">
-        <v>0</v>
-      </c>
-      <c r="W18" s="92">
-        <v>0</v>
-      </c>
-      <c r="X18" s="92">
+      <c r="V18" s="93">
+        <v>0</v>
+      </c>
+      <c r="W18" s="93">
+        <v>0</v>
+      </c>
+      <c r="X18" s="93">
         <v>0</v>
       </c>
       <c r="AB18" s="64">
@@ -65487,13 +66676,13 @@
       <c r="AD18" s="65">
         <v>0.16</v>
       </c>
-      <c r="AE18" s="92">
+      <c r="AE18" s="93">
         <v>4615</v>
       </c>
-      <c r="AF18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="92">
+      <c r="AF18" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="93">
         <v>4615</v>
       </c>
       <c r="AK18" s="64">
@@ -65505,13 +66694,13 @@
       <c r="AM18" s="65">
         <v>0</v>
       </c>
-      <c r="AN18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="92">
+      <c r="AN18" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="93">
         <v>0</v>
       </c>
       <c r="AS18" s="64">
@@ -65523,13 +66712,13 @@
       <c r="AU18" s="65">
         <v>0.19</v>
       </c>
-      <c r="AV18" s="92">
+      <c r="AV18" s="93">
         <v>6400</v>
       </c>
-      <c r="AW18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="92">
+      <c r="AW18" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="93">
         <v>6400</v>
       </c>
     </row>
@@ -65543,13 +66732,13 @@
       <c r="U19" s="65">
         <v>0.76</v>
       </c>
-      <c r="V19" s="92">
+      <c r="V19" s="93">
         <v>10150</v>
       </c>
-      <c r="W19" s="92">
+      <c r="W19" s="93">
         <v>3000</v>
       </c>
-      <c r="X19" s="92">
+      <c r="X19" s="93">
         <v>13150</v>
       </c>
       <c r="AB19" s="64">
@@ -65561,13 +66750,13 @@
       <c r="AD19" s="65">
         <v>0.82</v>
       </c>
-      <c r="AE19" s="92">
+      <c r="AE19" s="93">
         <v>13051</v>
       </c>
-      <c r="AF19" s="92">
+      <c r="AF19" s="93">
         <v>8600</v>
       </c>
-      <c r="AG19" s="92">
+      <c r="AG19" s="93">
         <v>21651</v>
       </c>
       <c r="AK19" s="64">
@@ -65579,13 +66768,13 @@
       <c r="AM19" s="65">
         <v>0</v>
       </c>
-      <c r="AN19" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="92">
+      <c r="AN19" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="93">
         <v>0</v>
       </c>
       <c r="AS19" s="64">
@@ -65597,13 +66786,13 @@
       <c r="AU19" s="65">
         <v>0.87</v>
       </c>
-      <c r="AV19" s="92">
+      <c r="AV19" s="93">
         <v>14246</v>
       </c>
-      <c r="AW19" s="92">
+      <c r="AW19" s="93">
         <v>8600</v>
       </c>
-      <c r="AX19" s="92">
+      <c r="AX19" s="93">
         <v>22846</v>
       </c>
     </row>
@@ -65617,13 +66806,13 @@
       <c r="U20" s="65">
         <v>0.2</v>
       </c>
-      <c r="V20" s="92">
+      <c r="V20" s="93">
         <v>2888</v>
       </c>
-      <c r="W20" s="92">
+      <c r="W20" s="93">
         <v>530</v>
       </c>
-      <c r="X20" s="92">
+      <c r="X20" s="93">
         <v>3418</v>
       </c>
       <c r="AB20" s="64">
@@ -65635,13 +66824,13 @@
       <c r="AD20" s="65">
         <v>0.87</v>
       </c>
-      <c r="AE20" s="92">
+      <c r="AE20" s="93">
         <v>14372</v>
       </c>
-      <c r="AF20" s="92">
+      <c r="AF20" s="93">
         <v>8700</v>
       </c>
-      <c r="AG20" s="92">
+      <c r="AG20" s="93">
         <v>23072</v>
       </c>
       <c r="AK20" s="64">
@@ -65653,13 +66842,13 @@
       <c r="AM20" s="65">
         <v>0</v>
       </c>
-      <c r="AN20" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="92">
+      <c r="AN20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="93">
         <v>0</v>
       </c>
       <c r="AS20" s="64">
@@ -65671,13 +66860,13 @@
       <c r="AU20" s="65">
         <v>0.73</v>
       </c>
-      <c r="AV20" s="92">
+      <c r="AV20" s="93">
         <v>13345</v>
       </c>
-      <c r="AW20" s="92">
+      <c r="AW20" s="93">
         <v>6000</v>
       </c>
-      <c r="AX20" s="92">
+      <c r="AX20" s="93">
         <v>19345</v>
       </c>
     </row>
@@ -65691,13 +66880,13 @@
       <c r="U21" s="65">
         <v>0.57999999999999996</v>
       </c>
-      <c r="V21" s="92">
+      <c r="V21" s="93">
         <v>7155</v>
       </c>
-      <c r="W21" s="92">
+      <c r="W21" s="93">
         <v>3474</v>
       </c>
-      <c r="X21" s="92">
+      <c r="X21" s="93">
         <v>10629</v>
       </c>
       <c r="AB21" s="64">
@@ -65709,13 +66898,13 @@
       <c r="AD21" s="65">
         <v>0.77</v>
       </c>
-      <c r="AE21" s="92">
+      <c r="AE21" s="93">
         <v>12925</v>
       </c>
-      <c r="AF21" s="92">
+      <c r="AF21" s="93">
         <v>7452</v>
       </c>
-      <c r="AG21" s="92">
+      <c r="AG21" s="93">
         <v>20377</v>
       </c>
       <c r="AK21" s="64">
@@ -65727,13 +66916,13 @@
       <c r="AM21" s="65">
         <v>0</v>
       </c>
-      <c r="AN21" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="92">
+      <c r="AN21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="93">
         <v>0</v>
       </c>
       <c r="AS21" s="64">
@@ -65745,13 +66934,13 @@
       <c r="AU21" s="65">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AV21" s="92">
+      <c r="AV21" s="93">
         <v>11808</v>
       </c>
-      <c r="AW21" s="92">
+      <c r="AW21" s="93">
         <v>2598</v>
       </c>
-      <c r="AX21" s="92">
+      <c r="AX21" s="93">
         <v>14406</v>
       </c>
     </row>
@@ -65765,13 +66954,13 @@
       <c r="U22" s="65">
         <v>0.72</v>
       </c>
-      <c r="V22" s="92">
+      <c r="V22" s="93">
         <v>9500</v>
       </c>
-      <c r="W22" s="92">
+      <c r="W22" s="93">
         <v>3000</v>
       </c>
-      <c r="X22" s="92">
+      <c r="X22" s="93">
         <v>12500</v>
       </c>
       <c r="AB22" s="64">
@@ -65783,13 +66972,13 @@
       <c r="AD22" s="65">
         <v>0.49</v>
       </c>
-      <c r="AE22" s="92">
+      <c r="AE22" s="93">
         <v>4260</v>
       </c>
-      <c r="AF22" s="92">
+      <c r="AF22" s="93">
         <v>8800</v>
       </c>
-      <c r="AG22" s="92">
+      <c r="AG22" s="93">
         <v>13060</v>
       </c>
       <c r="AK22" s="64">
@@ -65801,13 +66990,13 @@
       <c r="AM22" s="65">
         <v>0</v>
       </c>
-      <c r="AN22" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="92">
+      <c r="AN22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="93">
         <v>0</v>
       </c>
       <c r="AS22" s="64">
@@ -65819,13 +67008,13 @@
       <c r="AU22" s="65">
         <v>0.61</v>
       </c>
-      <c r="AV22" s="92">
+      <c r="AV22" s="93">
         <v>7160</v>
       </c>
-      <c r="AW22" s="92">
+      <c r="AW22" s="93">
         <v>8800</v>
       </c>
-      <c r="AX22" s="92">
+      <c r="AX22" s="93">
         <v>15960</v>
       </c>
     </row>
@@ -65839,13 +67028,13 @@
       <c r="U23" s="65">
         <v>1</v>
       </c>
-      <c r="V23" s="92">
+      <c r="V23" s="93">
         <v>13726</v>
       </c>
-      <c r="W23" s="92">
-        <v>0</v>
-      </c>
-      <c r="X23" s="92">
+      <c r="W23" s="93">
+        <v>0</v>
+      </c>
+      <c r="X23" s="93">
         <v>13726</v>
       </c>
       <c r="AB23" s="64">
@@ -65857,13 +67046,13 @@
       <c r="AD23" s="65">
         <v>0</v>
       </c>
-      <c r="AE23" s="92">
+      <c r="AE23" s="93">
         <v>7460</v>
       </c>
-      <c r="AF23" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="92">
+      <c r="AF23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="93">
         <v>7460</v>
       </c>
       <c r="AK23" s="64">
@@ -65875,13 +67064,13 @@
       <c r="AM23" s="65">
         <v>0</v>
       </c>
-      <c r="AN23" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="92">
+      <c r="AN23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="93">
         <v>0</v>
       </c>
       <c r="AS23" s="64">
@@ -65893,13 +67082,13 @@
       <c r="AU23" s="65">
         <v>0</v>
       </c>
-      <c r="AV23" s="92">
+      <c r="AV23" s="93">
         <v>7935</v>
       </c>
-      <c r="AW23" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="92">
+      <c r="AW23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="93">
         <v>7935</v>
       </c>
     </row>
@@ -65913,13 +67102,13 @@
       <c r="U24" s="65">
         <v>0</v>
       </c>
-      <c r="V24" s="92">
-        <v>0</v>
-      </c>
-      <c r="W24" s="92">
-        <v>0</v>
-      </c>
-      <c r="X24" s="92">
+      <c r="V24" s="93">
+        <v>0</v>
+      </c>
+      <c r="W24" s="93">
+        <v>0</v>
+      </c>
+      <c r="X24" s="93">
         <v>0</v>
       </c>
       <c r="AB24" s="64">
@@ -65931,13 +67120,13 @@
       <c r="AD24" s="65">
         <v>0.86</v>
       </c>
-      <c r="AE24" s="92">
+      <c r="AE24" s="93">
         <v>10800</v>
       </c>
-      <c r="AF24" s="92">
+      <c r="AF24" s="93">
         <v>7570</v>
       </c>
-      <c r="AG24" s="92">
+      <c r="AG24" s="93">
         <v>18370</v>
       </c>
       <c r="AK24" s="64">
@@ -65949,13 +67138,13 @@
       <c r="AM24" s="65">
         <v>0</v>
       </c>
-      <c r="AN24" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="92">
+      <c r="AN24" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="93">
         <v>0</v>
       </c>
       <c r="AS24" s="64">
@@ -65967,13 +67156,13 @@
       <c r="AU24" s="65">
         <v>0.66</v>
       </c>
-      <c r="AV24" s="92">
+      <c r="AV24" s="93">
         <v>11500</v>
       </c>
-      <c r="AW24" s="92">
+      <c r="AW24" s="93">
         <v>5980</v>
       </c>
-      <c r="AX24" s="92">
+      <c r="AX24" s="93">
         <v>17480</v>
       </c>
     </row>
@@ -65987,13 +67176,13 @@
       <c r="U25" s="65">
         <v>0.97</v>
       </c>
-      <c r="V25" s="92">
+      <c r="V25" s="93">
         <v>10050</v>
       </c>
-      <c r="W25" s="92">
+      <c r="W25" s="93">
         <v>6315</v>
       </c>
-      <c r="X25" s="92">
+      <c r="X25" s="93">
         <v>16365</v>
       </c>
       <c r="AB25" s="64">
@@ -66005,13 +67194,13 @@
       <c r="AD25" s="65">
         <v>0.86</v>
       </c>
-      <c r="AE25" s="92">
+      <c r="AE25" s="93">
         <v>14403</v>
       </c>
-      <c r="AF25" s="92">
+      <c r="AF25" s="93">
         <v>8385</v>
       </c>
-      <c r="AG25" s="92">
+      <c r="AG25" s="93">
         <v>22788</v>
       </c>
       <c r="AK25" s="64">
@@ -66023,13 +67212,13 @@
       <c r="AM25" s="65">
         <v>0</v>
       </c>
-      <c r="AN25" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="92">
+      <c r="AN25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="93">
         <v>0</v>
       </c>
       <c r="AS25" s="64">
@@ -66041,13 +67230,13 @@
       <c r="AU25" s="65">
         <v>0.91</v>
       </c>
-      <c r="AV25" s="92">
+      <c r="AV25" s="93">
         <v>15776</v>
       </c>
-      <c r="AW25" s="92">
+      <c r="AW25" s="93">
         <v>8200</v>
       </c>
-      <c r="AX25" s="92">
+      <c r="AX25" s="93">
         <v>23976</v>
       </c>
     </row>
@@ -66061,13 +67250,13 @@
       <c r="U26" s="65">
         <v>0.99</v>
       </c>
-      <c r="V26" s="92">
+      <c r="V26" s="93">
         <v>12660</v>
       </c>
-      <c r="W26" s="92">
+      <c r="W26" s="93">
         <v>6470</v>
       </c>
-      <c r="X26" s="92">
+      <c r="X26" s="93">
         <v>19130</v>
       </c>
       <c r="AB26" s="64">
@@ -66079,13 +67268,13 @@
       <c r="AD26" s="65">
         <v>0.87</v>
       </c>
-      <c r="AE26" s="92">
+      <c r="AE26" s="93">
         <v>14750</v>
       </c>
-      <c r="AF26" s="92">
+      <c r="AF26" s="93">
         <v>8275</v>
       </c>
-      <c r="AG26" s="92">
+      <c r="AG26" s="93">
         <v>23025</v>
       </c>
       <c r="AK26" s="64">
@@ -66097,13 +67286,13 @@
       <c r="AM26" s="65">
         <v>0</v>
       </c>
-      <c r="AN26" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="92">
+      <c r="AN26" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="93">
         <v>0</v>
       </c>
       <c r="AS26" s="64">
@@ -66115,13 +67304,13 @@
       <c r="AU26" s="65">
         <v>0.82</v>
       </c>
-      <c r="AV26" s="92">
+      <c r="AV26" s="93">
         <v>14340</v>
       </c>
-      <c r="AW26" s="92">
+      <c r="AW26" s="93">
         <v>7395</v>
       </c>
-      <c r="AX26" s="92">
+      <c r="AX26" s="93">
         <v>21735</v>
       </c>
     </row>
@@ -66135,13 +67324,13 @@
       <c r="U27" s="65">
         <v>0.98</v>
       </c>
-      <c r="V27" s="92">
+      <c r="V27" s="93">
         <v>12928</v>
       </c>
-      <c r="W27" s="92">
+      <c r="W27" s="93">
         <v>6017</v>
       </c>
-      <c r="X27" s="92">
+      <c r="X27" s="93">
         <v>18945</v>
       </c>
       <c r="AB27" s="64">
@@ -66153,13 +67342,13 @@
       <c r="AD27" s="65">
         <v>0.64</v>
       </c>
-      <c r="AE27" s="92">
+      <c r="AE27" s="93">
         <v>11180</v>
       </c>
-      <c r="AF27" s="92">
+      <c r="AF27" s="93">
         <v>5590</v>
       </c>
-      <c r="AG27" s="92">
+      <c r="AG27" s="93">
         <v>16770</v>
       </c>
       <c r="AK27" s="64">
@@ -66171,13 +67360,13 @@
       <c r="AM27" s="65">
         <v>0</v>
       </c>
-      <c r="AN27" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="92">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="92">
+      <c r="AN27" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="93">
         <v>0</v>
       </c>
       <c r="AS27" s="64">
@@ -66189,13 +67378,13 @@
       <c r="AU27" s="65">
         <v>0.82</v>
       </c>
-      <c r="AV27" s="92">
+      <c r="AV27" s="93">
         <v>14470</v>
       </c>
-      <c r="AW27" s="92">
+      <c r="AW27" s="93">
         <v>7235</v>
       </c>
-      <c r="AX27" s="92">
+      <c r="AX27" s="93">
         <v>21705</v>
       </c>
     </row>
@@ -66209,13 +67398,13 @@
       <c r="U28" s="65">
         <v>0</v>
       </c>
-      <c r="V28" s="92">
-        <v>0</v>
-      </c>
-      <c r="W28" s="92">
-        <v>0</v>
-      </c>
-      <c r="X28" s="92">
+      <c r="V28" s="93">
+        <v>0</v>
+      </c>
+      <c r="W28" s="93">
+        <v>0</v>
+      </c>
+      <c r="X28" s="93">
         <v>0</v>
       </c>
       <c r="AB28" s="64">
@@ -66227,13 +67416,13 @@
       <c r="AD28" s="65">
         <v>0.43</v>
       </c>
-      <c r="AE28" s="92">
+      <c r="AE28" s="93">
         <v>5775</v>
       </c>
-      <c r="AF28" s="92">
+      <c r="AF28" s="93">
         <v>5600</v>
       </c>
-      <c r="AG28" s="92">
+      <c r="AG28" s="93">
         <v>11375</v>
       </c>
       <c r="AK28" s="64">
@@ -66245,13 +67434,13 @@
       <c r="AM28" s="65">
         <v>0.92</v>
       </c>
-      <c r="AN28" s="92">
+      <c r="AN28" s="93">
         <v>10138</v>
       </c>
-      <c r="AO28" s="92">
+      <c r="AO28" s="93">
         <v>5760</v>
       </c>
-      <c r="AP28" s="92">
+      <c r="AP28" s="93">
         <v>15898</v>
       </c>
       <c r="AS28" s="64">
@@ -66263,13 +67452,13 @@
       <c r="AU28" s="65">
         <v>0.66</v>
       </c>
-      <c r="AV28" s="92">
+      <c r="AV28" s="93">
         <v>9700</v>
       </c>
-      <c r="AW28" s="92">
+      <c r="AW28" s="93">
         <v>7700</v>
       </c>
-      <c r="AX28" s="92">
+      <c r="AX28" s="93">
         <v>17400</v>
       </c>
     </row>
@@ -66283,13 +67472,13 @@
       <c r="U29" s="65">
         <v>10.163300000000001</v>
       </c>
-      <c r="V29" s="92">
+      <c r="V29" s="93">
         <v>134737</v>
       </c>
-      <c r="W29" s="92">
+      <c r="W29" s="93">
         <v>44386</v>
       </c>
-      <c r="X29" s="92">
+      <c r="X29" s="93">
         <v>179123</v>
       </c>
       <c r="AB29" s="64" t="s">
@@ -66301,13 +67490,13 @@
       <c r="AD29" s="65">
         <v>12.189299999999999</v>
       </c>
-      <c r="AE29" s="92">
+      <c r="AE29" s="93">
         <v>232631</v>
       </c>
-      <c r="AF29" s="92">
+      <c r="AF29" s="93">
         <v>97522</v>
       </c>
-      <c r="AG29" s="92">
+      <c r="AG29" s="93">
         <v>330153</v>
       </c>
       <c r="AK29" s="64" t="s">
@@ -66319,13 +67508,13 @@
       <c r="AM29" s="65">
         <v>3.0059999999999998</v>
       </c>
-      <c r="AN29" s="92">
+      <c r="AN29" s="93">
         <v>43938</v>
       </c>
-      <c r="AO29" s="92">
+      <c r="AO29" s="93">
         <v>9360</v>
       </c>
-      <c r="AP29" s="92">
+      <c r="AP29" s="93">
         <v>53298</v>
       </c>
       <c r="AS29" s="64" t="s">
@@ -66337,13 +67526,13 @@
       <c r="AU29" s="65">
         <v>12.452300000000003</v>
       </c>
-      <c r="AV29" s="92">
+      <c r="AV29" s="93">
         <v>256871</v>
       </c>
-      <c r="AW29" s="92">
+      <c r="AW29" s="93">
         <v>86091</v>
       </c>
-      <c r="AX29" s="92">
+      <c r="AX29" s="93">
         <v>342962</v>
       </c>
     </row>
@@ -66365,7 +67554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AEDC09-A57F-467F-9DBA-FDC12EC183C5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -66431,94 +67620,4 @@
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81291E12-FAD3-42EE-8315-E489CB628569}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B35:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="72">
-        <v>60</v>
-      </c>
-      <c r="H35" s="73">
-        <f>G35/60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="72">
-        <v>20</v>
-      </c>
-      <c r="H36" s="73">
-        <f t="shared" ref="H36:H37" si="0">G36/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="72">
-        <v>40</v>
-      </c>
-      <c r="H37" s="73">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/CALCUL_TRS.xlsx
+++ b/CALCUL_TRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FD5D5-9DF7-3241-9A2B-05C93BD81743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38800F00-42A6-7B4C-A443-560FC3AB2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="40880" windowHeight="23540" activeTab="6" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="40880" windowHeight="23540" activeTab="5" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="TDB" sheetId="4" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -766,9 +766,6 @@
   </si>
   <si>
     <t>Semaine 11</t>
-  </si>
-  <si>
-    <t>Semaine 12</t>
   </si>
   <si>
     <t>Commmentaire</t>
@@ -43825,8 +43822,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}" name="Tableau6" displayName="Tableau6" ref="B5:I14" totalsRowShown="0">
-  <autoFilter ref="B5:I14" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}" name="Tableau6" displayName="Tableau6" ref="B5:I13" totalsRowShown="0">
+  <autoFilter ref="B5:I13" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5FF3DE14-D01D-CC49-850B-BCDA13E32092}" name="Semaine"/>
     <tableColumn id="2" xr3:uid="{D00B9277-446B-FC4B-A4F8-BAD0E1F999D5}" name="Machine " dataDxfId="32"/>
@@ -59770,7 +59767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74:F75"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -61524,7 +61521,7 @@
   <dimension ref="B5:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -64137,10 +64134,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A40D3-9BA8-C84A-9206-0B23B732268D}">
-  <dimension ref="B5:I14"/>
+  <dimension ref="B5:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -64173,7 +64170,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -64217,7 +64214,7 @@
         <v>44608</v>
       </c>
       <c r="G7" s="94">
-        <f t="shared" ref="G7:G14" si="0">E7-F7</f>
+        <f t="shared" ref="G7:G13" si="0">E7-F7</f>
         <v>25792</v>
       </c>
       <c r="H7" s="98">
@@ -64366,30 +64363,6 @@
       </c>
       <c r="H13" s="98">
         <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="94">
-        <v>70400</v>
-      </c>
-      <c r="F14" s="94">
-        <v>56086</v>
-      </c>
-      <c r="G14" s="94">
-        <f t="shared" ref="G14" si="1">E14-F14</f>
-        <v>14314</v>
-      </c>
-      <c r="H14" s="98">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -64405,7 +64378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4603132-1DE4-CF42-AB98-D4DDD8FBDBF7}">
   <dimension ref="B4:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
@@ -64424,13 +64397,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
         <v>121</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Z4" t="s">
         <v>122</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.2">
@@ -64438,73 +64411,73 @@
         <v>112</v>
       </c>
       <c r="C5" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="100" t="s">
+      <c r="F5" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="G5" s="100" t="s">
         <v>130</v>
-      </c>
-      <c r="G5" s="100" t="s">
-        <v>131</v>
       </c>
       <c r="J5" t="s">
         <v>112</v>
       </c>
       <c r="K5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" t="s">
         <v>132</v>
       </c>
-      <c r="L5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>133</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>134</v>
-      </c>
-      <c r="O5" t="s">
-        <v>135</v>
       </c>
       <c r="R5" s="100" t="s">
         <v>112</v>
       </c>
       <c r="S5" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="U5" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="V5" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="T5" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="U5" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="V5" s="100" t="s">
+      <c r="W5" s="100" t="s">
         <v>137</v>
-      </c>
-      <c r="W5" s="100" t="s">
-        <v>138</v>
       </c>
       <c r="Z5" s="100" t="s">
         <v>112</v>
       </c>
       <c r="AA5" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="AB5" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC5" s="100" t="s">
+      <c r="AD5" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="AD5" s="100" t="s">
+      <c r="AE5" s="100" t="s">
         <v>141</v>
-      </c>
-      <c r="AE5" s="100" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">

--- a/CALCUL_TRS.xlsx
+++ b/CALCUL_TRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u52500\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E600953F-7C4A-4AAF-A920-82C4A2036FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44C5A96-4944-4612-AAE2-6336D872294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-15" windowWidth="28920" windowHeight="15720" activeTab="12" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
+    <workbookView xWindow="28740" yWindow="-15" windowWidth="28920" windowHeight="15720" firstSheet="8" activeTab="6" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="TDB" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="TRS Machine" sheetId="3" r:id="rId4"/>
     <sheet name="Pareto" sheetId="12" r:id="rId5"/>
     <sheet name="Semaine" sheetId="13" r:id="rId6"/>
-    <sheet name="Traitement" sheetId="5" r:id="rId7"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId8"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId9"/>
-    <sheet name="Feuil8" sheetId="8" r:id="rId10"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId11"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId12"/>
-    <sheet name="Feuil11" sheetId="11" r:id="rId13"/>
+    <sheet name="DétailsTRS" sheetId="14" r:id="rId7"/>
+    <sheet name="Traitement" sheetId="5" r:id="rId8"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId9"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId10"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId11"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId12"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId13"/>
+    <sheet name="Feuil11" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil11!$G$6:$G$27</definedName>
@@ -40,15 +41,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="513" r:id="rId14"/>
-    <pivotCache cacheId="519" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId16"/>
         <x14:slicerCache r:id="rId17"/>
         <x14:slicerCache r:id="rId18"/>
+        <x14:slicerCache r:id="rId19"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -56,7 +57,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId19"/>
+        <x15:timelineCacheRef r:id="rId20"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -767,10 +768,76 @@
     <t>Semaine 11</t>
   </si>
   <si>
-    <t>Semaine 12</t>
+    <t>Commmentaire</t>
   </si>
   <si>
-    <t>Commmentaire</t>
+    <t>Shinko 1 V831</t>
+  </si>
+  <si>
+    <t>Shinko 2 V832</t>
+  </si>
+  <si>
+    <t>Shinko 3 V833</t>
+  </si>
+  <si>
+    <t>Réf1</t>
+  </si>
+  <si>
+    <t>Objectif1</t>
+  </si>
+  <si>
+    <t>Qté produite1</t>
+  </si>
+  <si>
+    <t>Écart1</t>
+  </si>
+  <si>
+    <t>TRS1</t>
+  </si>
+  <si>
+    <t>Réf2</t>
+  </si>
+  <si>
+    <t>Objectif2</t>
+  </si>
+  <si>
+    <t>Qté produite2</t>
+  </si>
+  <si>
+    <t>Écart2</t>
+  </si>
+  <si>
+    <t>TRS2</t>
+  </si>
+  <si>
+    <t>Réf3</t>
+  </si>
+  <si>
+    <t>Objectif3</t>
+  </si>
+  <si>
+    <t>Qté produite3</t>
+  </si>
+  <si>
+    <t>Écart3</t>
+  </si>
+  <si>
+    <t>TRS3</t>
+  </si>
+  <si>
+    <t>Réf4</t>
+  </si>
+  <si>
+    <t>Objectif4</t>
+  </si>
+  <si>
+    <t>Qté produite4</t>
+  </si>
+  <si>
+    <t>Écart4</t>
+  </si>
+  <si>
+    <t>TRS4</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1099,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1301,12 +1368,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1490,6 +1568,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,13 +1596,18 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="82">
     <dxf>
       <font>
         <b val="0"/>
@@ -1541,7 +1625,186 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1553,6 +1816,495 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1607,10 +2359,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1622,19 +2377,16 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1694,6 +2446,39 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -34313,6 +35098,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>0%</a:t>
           </a:fld>
           <a:endParaRPr lang="fr-FR" sz="2000" b="1">
@@ -34728,8 +35514,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Date">
@@ -34752,7 +35538,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -35844,8 +36630,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9984648" y="5743846"/>
-              <a:ext cx="11045190" cy="5427346"/>
+              <a:off x="9975123" y="5684791"/>
+              <a:ext cx="11016615" cy="5374006"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -38088,8 +38874,1024 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0FA788F-3015-44E1-9FD7-4A756F076C7F}" name="Tableau croisé dynamique2" cacheId="519" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="I3:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E82345A-C959-4968-BA88-8DC84CE7B299}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB3:AG5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="28">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item x="25"/>
+        <item h="1" x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Somme de TRS 2 " fld="3" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Quantité E3" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F704887-5EEF-4ED7-A414-518C5D1542B7}" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="S3:X5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="28">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item x="25"/>
+        <item h="1" x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Somme de TRS 2 " fld="3" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Quantité E3" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="45">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1B5706C-0F48-4AB0-B310-F2FBA1DFE268}" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0">
       <items count="22">
@@ -38118,46 +39920,27 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item x="3"/>
         <item x="0"/>
-        <item x="2"/>
         <item m="1" x="4"/>
         <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
         <item x="2"/>
         <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="5">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -38168,21 +39951,6 @@
     <i>
       <x v="4"/>
     </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -38191,29 +39959,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Somme de Durées (m)" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Nombre de Arrêts" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="8">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
+  <chartFormats count="10">
+    <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -38222,11 +39971,107 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -38244,8 +40089,619 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{660CD5A6-69D2-4578-8103-D7B909CC757C}" name="Tableau croisé dynamique3" cacheId="519" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E8D0017-22FC-49CD-904C-7091FDB86172}" name="Tableau croisé dynamique10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="BG3:BI16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="368">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item x="367"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="59" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45717"/>
+            <customFilter operator="lessThanOrEqual" val="45747"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{660CD5A6-69D2-4578-8103-D7B909CC757C}" name="Tableau croisé dynamique3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="N3:P8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -38301,7 +40757,7 @@
     <dataField name="Somme de Durées (h)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -38422,8 +40878,607 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A3E8B2-833A-40A4-9BD8-D7FC9B1074BE}" name="Tableau croisé dynamique6" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2D0DE75-CA31-4E77-AF4E-EB468DD214E6}" name="Tableau croisé dynamique12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="BQ3:BS16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="368">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item x="367"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="38">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="59" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45717"/>
+            <customFilter operator="lessThanOrEqual" val="45747"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A3E8B2-833A-40A4-9BD8-D7FC9B1074BE}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AK3:AP5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -38907,7 +41962,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -38930,8 +41985,746 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2FF9E4D-F940-4EE1-AF8D-9CC4960B3F72}" name="Tableau croisé dynamique9" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A6CE76D-158C-460F-90CE-E1B005D1D062}" name="Tableau croisé dynamique11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="BL3:BN16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="368">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item x="367"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="59" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45717"/>
+            <customFilter operator="lessThanOrEqual" val="45747"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0FA788F-3015-44E1-9FD7-4A756F076C7F}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="I3:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Durées (m)" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="42">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2FF9E4D-F940-4EE1-AF8D-9CC4960B3F72}" name="Tableau croisé dynamique9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="BB3:BD16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -39436,7 +43229,7 @@
     <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -39531,2307 +43324,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F704887-5EEF-4ED7-A414-518C5D1542B7}" name="Tableau croisé dynamique4" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="S3:X5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="28">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item x="25"/>
-        <item h="1" x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Somme de TRS 2 " fld="3" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Somme de Quantité E3" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E8D0017-22FC-49CD-904C-7091FDB86172}" name="Tableau croisé dynamique10" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="BG3:BI16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="368">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item x="367"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="59" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45717"/>
-            <customFilter operator="lessThanOrEqual" val="45747"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2D0DE75-CA31-4E77-AF4E-EB468DD214E6}" name="Tableau croisé dynamique12" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="BQ3:BS16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="368">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item x="367"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="59" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45717"/>
-            <customFilter operator="lessThanOrEqual" val="45747"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A6CE76D-158C-460F-90CE-E1B005D1D062}" name="Tableau croisé dynamique11" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="BL3:BN16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="368">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item x="367"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="59" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45717"/>
-            <customFilter operator="lessThanOrEqual" val="45747"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F60F6709-EA76-4D6A-9274-0266E4A4C76E}" name="Tableau croisé dynamique7" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F60F6709-EA76-4D6A-9274-0266E4A4C76E}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AS3:AX5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -42315,715 +43809,7 @@
     <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1B5706C-0F48-4AB0-B310-F2FBA1DFE268}" name="Tableau croisé dynamique1" cacheId="519" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Arrêts" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E82345A-C959-4968-BA88-8DC84CE7B299}" name="Tableau croisé dynamique5" cacheId="513" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB3:AG5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="28">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item x="25"/>
-        <item h="1" x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Somme de TRS 1" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Somme de TRS 2 " fld="3" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Somme de Quantité E1+E2" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Somme de Quantité E3" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Somme de Quantité total" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="15">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -43162,44 +43948,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}" name="Tableau1" displayName="Tableau1" ref="B12:N336" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}" name="Tableau1" displayName="Tableau1" ref="B12:N336" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="B12:N336" xr:uid="{3466EDAC-D66B-4C4E-9139-E81C6DDA4B82}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1D039082-F45C-42A3-A96D-5829EEFF21C4}" name="Date" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{BBFA4997-538A-476D-BD76-263203FF6ABC}" name="Équipe" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{9A20E0DF-9527-4B0D-A550-5EF7167ABF81}" name="Machine" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{3B0ED0DB-3A3D-42B9-92CE-C7769A603883}" name="Reference" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{60FF7E2E-7F53-4AC9-8137-2A5C65D24895}" name="Cadence" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{06210FA9-A842-4E73-9D61-5F5A7ACE1E35}" name="Quantité" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{01816378-CFEC-4708-A4F0-66CF1B5F1387}" name="Objectif" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{1D039082-F45C-42A3-A96D-5829EEFF21C4}" name="Date" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{BBFA4997-538A-476D-BD76-263203FF6ABC}" name="Équipe" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{9A20E0DF-9527-4B0D-A550-5EF7167ABF81}" name="Machine" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{3B0ED0DB-3A3D-42B9-92CE-C7769A603883}" name="Reference" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{60FF7E2E-7F53-4AC9-8137-2A5C65D24895}" name="Cadence" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{06210FA9-A842-4E73-9D61-5F5A7ACE1E35}" name="Quantité" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{01816378-CFEC-4708-A4F0-66CF1B5F1387}" name="Objectif" dataDxfId="73">
       <calculatedColumnFormula>F13*8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C4032EF7-3002-493D-8583-34A8B76258DE}" name="Écart pièces" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{C4032EF7-3002-493D-8583-34A8B76258DE}" name="Écart pièces" dataDxfId="72">
       <calculatedColumnFormula>H13-G13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9DAE7675-70FD-445E-BDDB-E8E2238565B6}" name="Écart temps" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{1438624C-19DD-48A8-B0D4-4C0454660192}" name="Nombre d'arrêt" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{92F0ED0E-5E30-47AC-B9F1-963B5B62C863}" name="Durée arrêts" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{21AA2E60-0434-4A20-BDBE-F1BA2A9CF39A}" name="TRS" dataDxfId="38" dataCellStyle="Pourcentage"/>
-    <tableColumn id="13" xr3:uid="{19486378-4A9F-497E-9B1F-E475ECBA87F9}" name="Commentaire" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{9DAE7675-70FD-445E-BDDB-E8E2238565B6}" name="Écart temps" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{1438624C-19DD-48A8-B0D4-4C0454660192}" name="Nombre d'arrêt" dataDxfId="70"/>
+    <tableColumn id="11" xr3:uid="{92F0ED0E-5E30-47AC-B9F1-963B5B62C863}" name="Durée arrêts" dataDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{21AA2E60-0434-4A20-BDBE-F1BA2A9CF39A}" name="TRS" dataDxfId="68" dataCellStyle="Pourcentage"/>
+    <tableColumn id="13" xr3:uid="{19486378-4A9F-497E-9B1F-E475ECBA87F9}" name="Commentaire" dataDxfId="67"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}" name="Tableau4" displayName="Tableau4" ref="AI32:AK62" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="AI32:AK62" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DF8A1C01-18E8-494B-83B0-7679C44537BE}" name="Date" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{430A7B71-3CE2-4D74-8DAF-18AED78B5B2D}" name="TRS" dataDxfId="31" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{F1EF3F5F-838A-436F-8A45-EE6CDF2D8D01}" name="Qté" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}" name="Tableau2" displayName="Tableau2" ref="B5:H81" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}" name="Tableau2" displayName="Tableau2" ref="B5:H81" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="B5:H81" xr:uid="{C4480CF4-C52E-46FA-9FDF-CF9B3A0AF10E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C8979906-7385-4F96-B2E7-4F8FC864FCF7}" name="Date" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{C364A27F-09CB-402B-A1F2-43C609B28A7C}" name="Équipe" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{1361715B-CE84-4C43-92F7-019565185AAA}" name="Machine" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{E770DDB2-0CDE-42F9-A515-5F913C3C5CFA}" name="Arrêts" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{95B5CA0A-A6B0-47A6-A582-77BA65A8C587}" name="Durées (m)" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{43C12E68-90D4-42CF-BC19-E6722FF7D947}" name="Durées (h)" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{C8979906-7385-4F96-B2E7-4F8FC864FCF7}" name="Date" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{C364A27F-09CB-402B-A1F2-43C609B28A7C}" name="Équipe" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{1361715B-CE84-4C43-92F7-019565185AAA}" name="Machine" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{E770DDB2-0CDE-42F9-A515-5F913C3C5CFA}" name="Arrêts" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{95B5CA0A-A6B0-47A6-A582-77BA65A8C587}" name="Durées (m)" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{43C12E68-90D4-42CF-BC19-E6722FF7D947}" name="Durées (h)" dataDxfId="59">
       <calculatedColumnFormula>Tableau2[[#This Row],[Durées (m)]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FDF7BB73-1D0C-A241-A789-075E09936532}" name="pds" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{FDF7BB73-1D0C-A241-A789-075E09936532}" name="pds" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -43209,13 +44007,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{894CCDAD-CDD6-465E-80D2-20AB554BBE4E}" name="Tableau3" displayName="Tableau3" ref="B5:H113" totalsRowShown="0">
   <autoFilter ref="B5:H113" xr:uid="{894CCDAD-CDD6-465E-80D2-20AB554BBE4E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7C267BB5-CF9B-4D47-8B80-1FB9E42CA5FD}" name="Date" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{7C267BB5-CF9B-4D47-8B80-1FB9E42CA5FD}" name="Date" dataDxfId="57"/>
     <tableColumn id="2" xr3:uid="{8A871C23-BE6F-4F7B-B503-1F0217DD11F8}" name="Machine"/>
-    <tableColumn id="3" xr3:uid="{E32C80A4-959D-4B04-8450-5951FACD7F0D}" name="TRS 1" dataDxfId="26" dataCellStyle="Pourcentage"/>
-    <tableColumn id="4" xr3:uid="{04FDCF70-8941-43FF-9DFD-7BB25B382D43}" name="TRS 2 " dataDxfId="25" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{E32C80A4-959D-4B04-8450-5951FACD7F0D}" name="TRS 1" dataDxfId="56" dataCellStyle="Pourcentage"/>
+    <tableColumn id="4" xr3:uid="{04FDCF70-8941-43FF-9DFD-7BB25B382D43}" name="TRS 2 " dataDxfId="55" dataCellStyle="Pourcentage"/>
     <tableColumn id="5" xr3:uid="{83200B39-5C25-4757-8A04-3BEC7005985C}" name="Quantité E1+E2"/>
     <tableColumn id="6" xr3:uid="{883E0652-4F53-47D8-9F13-A468EEFB9D7B}" name="Quantité E3"/>
-    <tableColumn id="7" xr3:uid="{F9AFD7FF-EAC3-44D0-A1CE-D67455A2B1FF}" name="Quantité total" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{F9AFD7FF-EAC3-44D0-A1CE-D67455A2B1FF}" name="Quantité total" dataDxfId="54">
       <calculatedColumnFormula>F6+G6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -43224,33 +44022,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}" name="Tableau5" displayName="Tableau5" ref="B5:D15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}" name="Tableau5" displayName="Tableau5" ref="B5:D15" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B5:D15" xr:uid="{A0A70D16-E158-5D42-A304-3943D42765B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D15">
     <sortCondition descending="1" ref="C6:C15"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{89A7542E-1751-CB40-B649-E24A7F3492D9}" name="Arrêts" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{493BB54B-9250-2D4B-B6C7-D5E559092A71}" name="Durées (m)" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{0482A10B-5D20-934F-9D71-A1713F93DF2F}" name="PC" dataDxfId="0" dataCellStyle="Pourcentage"/>
+    <tableColumn id="1" xr3:uid="{89A7542E-1751-CB40-B649-E24A7F3492D9}" name="Arrêts" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{493BB54B-9250-2D4B-B6C7-D5E559092A71}" name="Durées (m)" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{0482A10B-5D20-934F-9D71-A1713F93DF2F}" name="PC" dataDxfId="49" dataCellStyle="Pourcentage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}" name="Tableau6" displayName="Tableau6" ref="B5:I14" totalsRowShown="0">
-  <autoFilter ref="B5:I14" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}" name="Tableau6" displayName="Tableau6" ref="B5:I13" totalsRowShown="0">
+  <autoFilter ref="B5:I13" xr:uid="{985E77F9-6971-5543-8E10-89E0F2951626}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5FF3DE14-D01D-CC49-850B-BCDA13E32092}" name="Semaine"/>
-    <tableColumn id="2" xr3:uid="{D00B9277-446B-FC4B-A4F8-BAD0E1F999D5}" name="Machine " dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B2D906ED-F0F7-9448-9AF1-A69813965A44}" name="Ref" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D00B9277-446B-FC4B-A4F8-BAD0E1F999D5}" name="Machine " dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{B2D906ED-F0F7-9448-9AF1-A69813965A44}" name="Ref" dataDxfId="47"/>
     <tableColumn id="4" xr3:uid="{4D0E4E49-F3E9-404C-B205-D9C55910B9E1}" name="Objectif"/>
     <tableColumn id="5" xr3:uid="{1FB481F5-4815-6245-A5D3-BCA9454FBAEF}" name="Qté produite"/>
     <tableColumn id="6" xr3:uid="{6DAFD0A6-7665-B146-A89D-00902FC921DC}" name="Écart">
       <calculatedColumnFormula>E6-F6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EB814DC3-DAC7-6B45-999C-1AC4C9E7E41E}" name="TRS" dataDxfId="18" dataCellStyle="Pourcentage"/>
+    <tableColumn id="7" xr3:uid="{EB814DC3-DAC7-6B45-999C-1AC4C9E7E41E}" name="TRS" dataDxfId="46" dataCellStyle="Pourcentage"/>
     <tableColumn id="8" xr3:uid="{8F9ADACA-4E38-DD4D-8A59-7195BFF9DABC}" name="Commmentaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -43258,14 +44056,70 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}" name="Tableau4" displayName="Tableau4" ref="AI32:AK62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="AI32:AK62" xr:uid="{5A5BA314-728F-41DF-B436-D7A736B66477}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF8A1C01-18E8-494B-83B0-7679C44537BE}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{430A7B71-3CE2-4D74-8DAF-18AED78B5B2D}" name="TRS" dataDxfId="3" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{F1EF3F5F-838A-436F-8A45-EE6CDF2D8D01}" name="Qté" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C3ADA027-BDF3-4ADC-9AA0-BBF84EB0BBF6}" name="Tableau7" displayName="Tableau7" ref="B5:G7" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B5:G7" xr:uid="{C3ADA027-BDF3-4ADC-9AA0-BBF84EB0BBF6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{82110287-4DA2-4E23-AF4C-934F43091E8A}" name="Semaine" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{CE4D20CE-F0F4-4148-A65C-4C15C2BDE80B}" name="Réf1" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{5E479AA2-F31D-4499-AD73-8FAEA315829E}" name="Objectif1" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{E3ECDC1D-9AB3-42B6-AEC7-8264A60A07CB}" name="Qté produite1" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{2DCA57F5-2F35-4155-ACB0-0463D5E13466}" name="Écart1" dataDxfId="23">
+      <calculatedColumnFormula>D6-E6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{85FCF25C-40A4-4BCF-AF8F-0823FA6DFFA6}" name="TRS1" dataDxfId="22"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F561D414-1E8C-48BE-9676-72AE3EF37E0A}" name="Tableau8" displayName="Tableau8" ref="J5:O7" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="J5:O7" xr:uid="{F561D414-1E8C-48BE-9676-72AE3EF37E0A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{905EA822-D8FF-4F98-A0EF-3120D8EEBAD2}" name="Semaine"/>
+    <tableColumn id="2" xr3:uid="{2DC4449D-8AF3-49F1-B542-5E50BA7ED098}" name="Réf2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{6165A164-8AE6-4F12-A639-C1F8D2F5D5ED}" name="Objectif2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{EF112BE0-C558-4396-8779-BA18D514B744}" name="Qté produite2" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DC6F2425-920F-4EBD-A310-FADCFF9685F2}" name="Écart2" dataDxfId="17">
+      <calculatedColumnFormula>L6-M6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C00F0051-7E80-4D96-AB31-68207098773D}" name="TRS2" dataDxfId="16" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5464C823-5238-467F-AA0D-E974B9917A6B}" name="Tableau9" displayName="Tableau9" ref="R5:W7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="R5:W7" xr:uid="{5464C823-5238-467F-AA0D-E974B9917A6B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5C74E9B3-1BA4-412D-BA84-1C917F00C0F7}" name="Semaine" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{75D5B65C-9AC1-4508-BFC0-A55081496313}" name="Réf3" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{F180D62A-866C-4FE3-82BF-01E2F39AB36E}" name="Objectif3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{213C728B-BEA4-410A-8F33-DCA051CD5FD5}" name="Qté produite3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{81F0C789-5C90-4D3F-A8A8-5DBB36A2334F}" name="Écart3" dataDxfId="9">
+      <calculatedColumnFormula>T6-U6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4A25E099-B3ED-4CEE-B0CF-1BC8A9873B3F}" name="TRS3" dataDxfId="8" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CDB2D2CA-EE62-4387-AEB5-385029A19158}" name="Tableau10" displayName="Tableau10" ref="Z5:AE7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="Z5:AE7" xr:uid="{CDB2D2CA-EE62-4387-AEB5-385029A19158}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{01D3F3C2-43FD-4D50-AB4C-E28EB81072E7}" name="Semaine" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A3635632-E66D-4D5B-8284-84E4C64256AF}" name="Réf4" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CB8503F3-814B-4471-B077-A174D34DDA63}" name="Objectif4" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FDF250D7-445C-4579-B628-473FBC880E31}" name="Qté produite4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0390E7E2-8F85-485A-BBDB-99421DD5C1DB}" name="Écart4" dataDxfId="1">
+      <calculatedColumnFormula>AB6-AC6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0EA2FFEC-8C59-4675-BA59-DCB1DB3DEB16}" name="TRS4" dataDxfId="0" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -43645,6 +44499,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81291E12-FAD3-42EE-8315-E489CB628569}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B35:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="72">
+        <v>60</v>
+      </c>
+      <c r="H35" s="73">
+        <f>G35/60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="72">
+        <v>20</v>
+      </c>
+      <c r="H36" s="73">
+        <f t="shared" ref="H36:H37" si="0">G36/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="68">
+        <v>45726</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="72">
+        <v>40</v>
+      </c>
+      <c r="H37" s="73">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4D713-E1D4-4792-8A52-E0B153426225}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -43733,7 +44677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4FCCD-D94F-4CE6-B0D0-6FEF2B76089E}">
   <dimension ref="A4:AK86"/>
   <sheetViews>
@@ -45113,7 +46057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C7256B-A39F-4936-AB81-89CAAB19787C}">
   <dimension ref="B5:I17"/>
   <sheetViews>
@@ -45370,11 +46314,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BBB01C-5372-4A16-B78D-B844DEF5F5F8}">
   <dimension ref="B5:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -45977,9 +46921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC1D70E-CC24-4FF3-A408-6352BA125E7B}">
   <dimension ref="B3:S336"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M334" sqref="M334:M336"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B313" sqref="B313:N336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46042,7 +46986,7 @@
         <f>L4*60</f>
         <v>0</v>
       </c>
-      <c r="N4" s="95">
+      <c r="N4" s="96">
         <f>I10</f>
         <v>0.94318181818181823</v>
       </c>
@@ -46084,7 +47028,7 @@
         <f>L5*60</f>
         <v>0</v>
       </c>
-      <c r="N5" s="96"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="20" t="s">
         <v>35</v>
       </c>
@@ -46114,7 +47058,7 @@
         <f>I5</f>
         <v>0</v>
       </c>
-      <c r="N6" s="96"/>
+      <c r="N6" s="97"/>
       <c r="O6" s="20" t="s">
         <v>36</v>
       </c>
@@ -46139,10 +47083,10 @@
         <f>C7*K10</f>
         <v>8800</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="48" t="s">
         <v>45</v>
       </c>
@@ -46165,7 +47109,7 @@
         <f>I4</f>
         <v>1636.3636363636363</v>
       </c>
-      <c r="N7" s="96"/>
+      <c r="N7" s="97"/>
       <c r="O7" s="20" t="s">
         <v>37</v>
       </c>
@@ -46190,11 +47134,11 @@
         <f>C8*K10</f>
         <v>8800</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="92">
         <f>I10</f>
         <v>0.94318181818181823</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="93"/>
       <c r="H8" s="50" t="s">
         <v>46</v>
       </c>
@@ -46202,7 +47146,7 @@
         <f>Q7/Q6</f>
         <v>1</v>
       </c>
-      <c r="N8" s="96"/>
+      <c r="N8" s="97"/>
       <c r="O8" s="20" t="s">
         <v>38</v>
       </c>
@@ -46224,8 +47168,8 @@
         <f>D7-D8</f>
         <v>0</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
       <c r="H9" s="50" t="s">
         <v>47</v>
       </c>
@@ -46247,7 +47191,7 @@
         <f>L9*60</f>
         <v>86400</v>
       </c>
-      <c r="N9" s="96"/>
+      <c r="N9" s="97"/>
       <c r="R9" s="30"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
@@ -46257,8 +47201,8 @@
       <c r="C10" s="21">
         <v>500</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
       <c r="H10" s="52" t="s">
         <v>44</v>
       </c>
@@ -46280,7 +47224,7 @@
         <f>L10*60</f>
         <v>28800</v>
       </c>
-      <c r="N10" s="97"/>
+      <c r="N10" s="98"/>
       <c r="O10" s="56" t="s">
         <v>34</v>
       </c>
@@ -60022,7 +60966,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61897,7 +62841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M107" sqref="M107"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106:H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64538,7 +65482,7 @@
   <dimension ref="B5:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B5" sqref="B5:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64572,7 +65516,7 @@
       <c r="C6">
         <v>1370</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="89">
         <f>C6/H5</f>
         <v>0.22425928957276151</v>
       </c>
@@ -64584,7 +65528,7 @@
       <c r="C7">
         <v>1333</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="89">
         <f>D6+Tableau5[[#This Row],[Durées (m)]]/H5</f>
         <v>0.44246194139793749</v>
       </c>
@@ -64596,7 +65540,7 @@
       <c r="C8">
         <v>1270</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="89">
         <f>D7+Tableau5[[#This Row],[Durées (m)]]/H5</f>
         <v>0.65035193976100836</v>
       </c>
@@ -64608,7 +65552,7 @@
       <c r="C9">
         <v>1146</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="89">
         <f>D8+(C9/H5)</f>
         <v>0.83794401702406285</v>
       </c>
@@ -64620,7 +65564,7 @@
       <c r="C10">
         <v>310</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="89">
         <f>D9+(C10/H5)</f>
         <v>0.88868881977410374</v>
       </c>
@@ -64632,7 +65576,7 @@
       <c r="C11">
         <v>280</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="89">
         <f>D10+(C11/H5)</f>
         <v>0.93452283516123746</v>
       </c>
@@ -64644,7 +65588,7 @@
       <c r="C12">
         <v>140</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="89">
         <f>D11+(C12/H5)</f>
         <v>0.95743984285480432</v>
       </c>
@@ -64656,7 +65600,7 @@
       <c r="C13">
         <v>100</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="89">
         <f>D12+(C13/H5)</f>
         <v>0.97380913406449499</v>
       </c>
@@ -64668,7 +65612,7 @@
       <c r="C14">
         <v>100</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="89">
         <f>D13+(C14/H5)</f>
         <v>0.99017842527418565</v>
       </c>
@@ -64680,7 +65624,7 @@
       <c r="C15">
         <v>60</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="89">
         <f>D14+(C15/H5)</f>
         <v>1</v>
       </c>
@@ -64701,10 +65645,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A40D3-9BA8-C84A-9206-0B23B732268D}">
-  <dimension ref="B5:I14"/>
+  <dimension ref="B5:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64736,7 +65680,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -64929,30 +65873,6 @@
       </c>
       <c r="H13" s="87">
         <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="83">
-        <v>70400</v>
-      </c>
-      <c r="F14" s="83">
-        <v>56086</v>
-      </c>
-      <c r="G14" s="83">
-        <f t="shared" ref="G14" si="1">E14-F14</f>
-        <v>14314</v>
-      </c>
-      <c r="H14" s="87">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -64965,6 +65885,271 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FD81FC-4991-4038-B11E-598C346657B5}">
+  <dimension ref="B4:AE7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="99">
+        <v>46400</v>
+      </c>
+      <c r="E6" s="99">
+        <v>29693</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>16707</v>
+      </c>
+      <c r="G6" s="100">
+        <v>0.64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="99">
+        <v>70400</v>
+      </c>
+      <c r="M6" s="99">
+        <v>44608</v>
+      </c>
+      <c r="N6" s="99">
+        <f t="shared" ref="N6:N7" si="0">L6-M6</f>
+        <v>25792</v>
+      </c>
+      <c r="O6" s="101">
+        <v>0.64</v>
+      </c>
+      <c r="R6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="99">
+        <v>46080</v>
+      </c>
+      <c r="U6" s="99">
+        <v>0</v>
+      </c>
+      <c r="V6" s="99">
+        <f t="shared" ref="V6:V7" si="1">T6-U6</f>
+        <v>46080</v>
+      </c>
+      <c r="W6" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA6" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="99">
+        <v>70400</v>
+      </c>
+      <c r="AC6" s="99">
+        <v>46539</v>
+      </c>
+      <c r="AD6" s="99">
+        <f t="shared" ref="AD6:AD7" si="2">AB6-AC6</f>
+        <v>23861</v>
+      </c>
+      <c r="AE6" s="100">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="99">
+        <v>36360</v>
+      </c>
+      <c r="E7" s="99">
+        <v>35638</v>
+      </c>
+      <c r="F7">
+        <f>D7-E7</f>
+        <v>722</v>
+      </c>
+      <c r="G7" s="100">
+        <v>0.98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="99">
+        <v>70400</v>
+      </c>
+      <c r="M7" s="99">
+        <v>51133</v>
+      </c>
+      <c r="N7" s="99">
+        <f t="shared" si="0"/>
+        <v>19267</v>
+      </c>
+      <c r="O7" s="101">
+        <v>0.73</v>
+      </c>
+      <c r="R7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="99">
+        <v>46080</v>
+      </c>
+      <c r="U7" s="99">
+        <v>0</v>
+      </c>
+      <c r="V7" s="99">
+        <f t="shared" si="1"/>
+        <v>46080</v>
+      </c>
+      <c r="W7" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA7" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="99">
+        <v>70400</v>
+      </c>
+      <c r="AC7" s="99">
+        <v>56086</v>
+      </c>
+      <c r="AD7" s="99">
+        <f t="shared" si="2"/>
+        <v>14314</v>
+      </c>
+      <c r="AE7" s="100">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660EC4F3-5481-4A5E-94A2-6A5B41FC264F}">
   <dimension ref="B1:BS16"/>
   <sheetViews>
@@ -66159,7 +67344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AEDC09-A57F-467F-9DBA-FDC12EC183C5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -66225,94 +67410,4 @@
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81291E12-FAD3-42EE-8315-E489CB628569}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B35:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="72">
-        <v>60</v>
-      </c>
-      <c r="H35" s="73">
-        <f>G35/60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="72">
-        <v>20</v>
-      </c>
-      <c r="H36" s="73">
-        <f t="shared" ref="H36:H37" si="0">G36/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="68">
-        <v>45726</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="72">
-        <v>40</v>
-      </c>
-      <c r="H37" s="73">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/CALCUL_TRS.xlsx
+++ b/CALCUL_TRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u52500\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A070C-48FB-46D1-8070-7DFC0F28A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF8B282-79DB-4365-B65C-8DED0636B5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-15" windowWidth="28920" windowHeight="15720" activeTab="6" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
+    <workbookView xWindow="28740" yWindow="-15" windowWidth="28920" windowHeight="15720" activeTab="5" xr2:uid="{CE313274-5B01-40DA-823C-A22BABA46CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="TDB" sheetId="4" r:id="rId1"/>
@@ -1397,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1641,6 +1641,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -67156,8 +67157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A40D3-9BA8-C84A-9206-0B23B732268D}">
   <dimension ref="B5:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -67404,8 +67405,8 @@
         <f t="shared" ref="G14:G17" si="1">E14-F14</f>
         <v>5986</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.6</v>
+      <c r="H14" s="113">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -67428,8 +67429,8 @@
         <f t="shared" si="1"/>
         <v>32285</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.54</v>
+      <c r="H15" s="113">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -67452,8 +67453,8 @@
         <f t="shared" si="1"/>
         <v>9617</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.79</v>
+      <c r="H16" s="113">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -67476,8 +67477,8 @@
         <f t="shared" si="1"/>
         <v>13974</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.8</v>
+      <c r="H17" s="113">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -67493,7 +67494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FD81FC-4991-4038-B11E-598C346657B5}">
   <dimension ref="B4:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
